--- a/West-Nile-Virus.xlsx
+++ b/West-Nile-Virus.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23627"/>
   <workbookPr hidePivotFieldList="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10B73EAE-0AF1-408A-84E4-AA5C882A8FAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2C009F8-29D8-49B1-B275-1EACBD282216}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="total-cases-by-state-1999-2019" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191028" calcCompleted="0"/>
   <pivotCaches>
-    <pivotCache cacheId="617" r:id="rId8"/>
+    <pivotCache cacheId="12251" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="129">
   <si>
     <t>State</t>
   </si>
@@ -434,7 +434,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -454,6 +454,12 @@
       <sz val="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -463,7 +469,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -471,11 +477,122 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -494,11 +611,38 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="68">
+  <dxfs count="81">
     <dxf>
       <font>
         <b val="0"/>
@@ -999,10 +1143,26 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
-        <color auto="1"/>
+        <color rgb="FF000000"/>
         <name val="Arial"/>
+        <charset val="1"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1016,10 +1176,28 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
-        <color auto="1"/>
+        <color rgb="FF000000"/>
         <name val="Arial"/>
+        <charset val="1"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1033,10 +1211,28 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
-        <color auto="1"/>
+        <color rgb="FF000000"/>
         <name val="Arial"/>
+        <charset val="1"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1050,10 +1246,28 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
-        <color auto="1"/>
+        <color rgb="FF000000"/>
         <name val="Arial"/>
+        <charset val="1"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1067,10 +1281,28 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
-        <color auto="1"/>
+        <color rgb="FF000000"/>
         <name val="Arial"/>
+        <charset val="1"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1084,10 +1316,28 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
-        <color auto="1"/>
+        <color rgb="FF000000"/>
         <name val="Arial"/>
+        <charset val="1"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1101,10 +1351,28 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
-        <color auto="1"/>
+        <color rgb="FF000000"/>
         <name val="Arial"/>
+        <charset val="1"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1118,10 +1386,28 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
-        <color auto="1"/>
+        <color rgb="FF000000"/>
         <name val="Arial"/>
+        <charset val="1"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1135,10 +1421,28 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
-        <color auto="1"/>
+        <color rgb="FF000000"/>
         <name val="Arial"/>
+        <charset val="1"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1152,10 +1456,28 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
-        <color auto="1"/>
+        <color rgb="FF000000"/>
         <name val="Arial"/>
+        <charset val="1"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1169,10 +1491,28 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
-        <color auto="1"/>
+        <color rgb="FF000000"/>
         <name val="Arial"/>
+        <charset val="1"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1186,10 +1526,28 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
-        <color auto="1"/>
+        <color rgb="FF000000"/>
         <name val="Arial"/>
+        <charset val="1"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1203,11 +1561,28 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
-        <color auto="1"/>
+        <color rgb="FF000000"/>
         <name val="Arial"/>
+        <charset val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1221,10 +1596,28 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
-        <color auto="1"/>
+        <color rgb="FF000000"/>
         <name val="Arial"/>
+        <charset val="1"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1238,11 +1631,384 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
-        <color auto="1"/>
+        <color rgb="FF000000"/>
         <name val="Arial"/>
+        <charset val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1998,7 +2764,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{89E0AAA3-86A3-4496-9EC5-DD99EF98D0F0}" name="PivotTable2" cacheId="617" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{89E0AAA3-86A3-4496-9EC5-DD99EF98D0F0}" name="PivotTable2" cacheId="12251" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="E2:F16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
@@ -2088,54 +2854,64 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2F1E2AA4-CEAE-4A5C-BEB6-B2778FF1860C}" name="Table1" displayName="Table1" ref="A1:W54" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2F1E2AA4-CEAE-4A5C-BEB6-B2778FF1860C}" name="Table1" displayName="Table1" ref="A1:W54" totalsRowShown="0" headerRowDxfId="80" dataDxfId="79">
   <autoFilter ref="A1:W54" xr:uid="{B878894F-8BF6-434F-8792-B5C7298BE02A}"/>
   <tableColumns count="23">
-    <tableColumn id="1" xr3:uid="{CF51C495-8276-4B3C-A346-B7B4E64D60A9}" name="State" dataDxfId="65"/>
-    <tableColumn id="2" xr3:uid="{6267EBBE-CAF5-4C50-A18B-DC930132451B}" name="1999" dataDxfId="64"/>
-    <tableColumn id="3" xr3:uid="{2E6A637D-3213-4628-812C-A6C2FD0B51DA}" name="2000" dataDxfId="63"/>
-    <tableColumn id="4" xr3:uid="{2114A7BC-33D0-41DC-912B-F956F877655B}" name="2001" dataDxfId="62"/>
-    <tableColumn id="5" xr3:uid="{9996AABF-9CC4-4057-91DE-2EE031E0BECE}" name="2002" dataDxfId="61"/>
-    <tableColumn id="6" xr3:uid="{444A50F3-5C1B-4A6E-9FA0-4B8741FC606B}" name="2003" dataDxfId="60"/>
-    <tableColumn id="7" xr3:uid="{91C8B0E8-467A-4A93-8601-833DE59B0503}" name="2004" dataDxfId="59"/>
-    <tableColumn id="8" xr3:uid="{4F8ECDA6-12C5-42D7-9127-E1C9AF68CB13}" name="2005" dataDxfId="58"/>
-    <tableColumn id="9" xr3:uid="{542F0BFB-B781-4E6C-B7F3-6DD2986657EE}" name="2006" dataDxfId="57"/>
-    <tableColumn id="10" xr3:uid="{0A0AE2DE-A1A3-4CDD-B7D2-DB313FD22C77}" name="2007" dataDxfId="56"/>
-    <tableColumn id="11" xr3:uid="{E33A7642-14E2-4FE5-9CE9-17E6C8195A13}" name="2008" dataDxfId="55"/>
-    <tableColumn id="12" xr3:uid="{839932EB-79A6-4C37-96B5-7E7B90EAED35}" name="2009" dataDxfId="54"/>
-    <tableColumn id="13" xr3:uid="{57FEF01F-DB62-412B-9302-3BF7D77482E5}" name="2010" dataDxfId="53"/>
-    <tableColumn id="14" xr3:uid="{A808A828-977D-4D60-9BF9-93EA9A20E8C4}" name="2011" dataDxfId="52"/>
-    <tableColumn id="15" xr3:uid="{32160A49-8DBD-4393-BA52-C8402345C0E3}" name="2012" dataDxfId="51"/>
-    <tableColumn id="16" xr3:uid="{E32EA7DB-E2B5-4796-83D2-187B33A4E56C}" name="2013" dataDxfId="50"/>
-    <tableColumn id="17" xr3:uid="{7700DDDB-8AE8-4C0F-B9E1-A102514BDABD}" name="2014" dataDxfId="49"/>
-    <tableColumn id="18" xr3:uid="{C15AD4F6-1AF7-4624-8451-52D5E9653429}" name="2015" dataDxfId="48"/>
-    <tableColumn id="19" xr3:uid="{B4F7436C-4B87-45E9-9F17-00B7DC927114}" name="2016" dataDxfId="47"/>
-    <tableColumn id="20" xr3:uid="{AA7C8BE8-F856-49EB-AC6A-314375E0D6E3}" name="2017" dataDxfId="46"/>
-    <tableColumn id="21" xr3:uid="{19F41F3F-6CF3-48C1-BE68-098C1437759B}" name="2018" dataDxfId="45"/>
-    <tableColumn id="22" xr3:uid="{70F93C66-CCF7-497C-AE12-54F175DF3258}" name="2019" dataDxfId="44"/>
-    <tableColumn id="23" xr3:uid="{66260AE5-A68E-4C8A-B149-406EC0E13CBD}" name="Total" dataDxfId="43"/>
+    <tableColumn id="1" xr3:uid="{CF51C495-8276-4B3C-A346-B7B4E64D60A9}" name="State" dataDxfId="78"/>
+    <tableColumn id="2" xr3:uid="{6267EBBE-CAF5-4C50-A18B-DC930132451B}" name="1999" dataDxfId="77"/>
+    <tableColumn id="3" xr3:uid="{2E6A637D-3213-4628-812C-A6C2FD0B51DA}" name="2000" dataDxfId="76"/>
+    <tableColumn id="4" xr3:uid="{2114A7BC-33D0-41DC-912B-F956F877655B}" name="2001" dataDxfId="75"/>
+    <tableColumn id="5" xr3:uid="{9996AABF-9CC4-4057-91DE-2EE031E0BECE}" name="2002" dataDxfId="74"/>
+    <tableColumn id="6" xr3:uid="{444A50F3-5C1B-4A6E-9FA0-4B8741FC606B}" name="2003" dataDxfId="73"/>
+    <tableColumn id="7" xr3:uid="{91C8B0E8-467A-4A93-8601-833DE59B0503}" name="2004" dataDxfId="72"/>
+    <tableColumn id="8" xr3:uid="{4F8ECDA6-12C5-42D7-9127-E1C9AF68CB13}" name="2005" dataDxfId="71"/>
+    <tableColumn id="9" xr3:uid="{542F0BFB-B781-4E6C-B7F3-6DD2986657EE}" name="2006" dataDxfId="70"/>
+    <tableColumn id="10" xr3:uid="{0A0AE2DE-A1A3-4CDD-B7D2-DB313FD22C77}" name="2007" dataDxfId="69"/>
+    <tableColumn id="11" xr3:uid="{E33A7642-14E2-4FE5-9CE9-17E6C8195A13}" name="2008" dataDxfId="68"/>
+    <tableColumn id="12" xr3:uid="{839932EB-79A6-4C37-96B5-7E7B90EAED35}" name="2009" dataDxfId="67"/>
+    <tableColumn id="13" xr3:uid="{57FEF01F-DB62-412B-9302-3BF7D77482E5}" name="2010" dataDxfId="66"/>
+    <tableColumn id="14" xr3:uid="{A808A828-977D-4D60-9BF9-93EA9A20E8C4}" name="2011" dataDxfId="65"/>
+    <tableColumn id="15" xr3:uid="{32160A49-8DBD-4393-BA52-C8402345C0E3}" name="2012" dataDxfId="64"/>
+    <tableColumn id="16" xr3:uid="{E32EA7DB-E2B5-4796-83D2-187B33A4E56C}" name="2013" dataDxfId="63"/>
+    <tableColumn id="17" xr3:uid="{7700DDDB-8AE8-4C0F-B9E1-A102514BDABD}" name="2014" dataDxfId="62"/>
+    <tableColumn id="18" xr3:uid="{C15AD4F6-1AF7-4624-8451-52D5E9653429}" name="2015" dataDxfId="61"/>
+    <tableColumn id="19" xr3:uid="{B4F7436C-4B87-45E9-9F17-00B7DC927114}" name="2016" dataDxfId="60"/>
+    <tableColumn id="20" xr3:uid="{AA7C8BE8-F856-49EB-AC6A-314375E0D6E3}" name="2017" dataDxfId="59"/>
+    <tableColumn id="21" xr3:uid="{19F41F3F-6CF3-48C1-BE68-098C1437759B}" name="2018" dataDxfId="58"/>
+    <tableColumn id="22" xr3:uid="{70F93C66-CCF7-497C-AE12-54F175DF3258}" name="2019" dataDxfId="57"/>
+    <tableColumn id="23" xr3:uid="{66260AE5-A68E-4C8A-B149-406EC0E13CBD}" name="Total" dataDxfId="56"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4E511402-4E5D-43A8-A7D7-5871C79E0D42}" name="Table2" displayName="Table2" ref="A1:M54" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
-  <autoFilter ref="A1:M54" xr:uid="{D5FFA13F-3F43-423E-8C85-3A4D35ADCEA9}"/>
-  <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{0B534D9A-7EF5-4AB4-B682-49C0ABD8AE28}" name="State" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{FC9A91DB-12A1-4DE6-840B-4B7CDB814CB5}" name="1999" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{6CFEA29E-C883-4726-A643-3609A606697B}" name="2000" dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{BFADC35E-2E41-42C2-8D14-98E4F71B3FF6}" name="2001" dataDxfId="37"/>
-    <tableColumn id="5" xr3:uid="{CC7D95B4-4443-4C70-91FE-94A152223E08}" name="2002" dataDxfId="36"/>
-    <tableColumn id="6" xr3:uid="{56BC2443-3F56-499C-B308-7BEB73BF11F1}" name="2003" dataDxfId="35"/>
-    <tableColumn id="7" xr3:uid="{4F3E3FF2-BEF9-4826-B60C-5ED36FF4C439}" name="2004" dataDxfId="34"/>
-    <tableColumn id="8" xr3:uid="{BEA009F6-3149-4BB8-868E-769D8BA41287}" name="2005" dataDxfId="33"/>
-    <tableColumn id="9" xr3:uid="{19EDC9BC-EBB2-4D04-8682-DC5F83B5D18E}" name="2006" dataDxfId="32"/>
-    <tableColumn id="10" xr3:uid="{3EEA2F49-6445-4269-B800-0447E2A3823B}" name="2007" dataDxfId="31"/>
-    <tableColumn id="11" xr3:uid="{5A6C1552-949D-42C2-B22C-DCCE1A1B7F4C}" name="2008" dataDxfId="30"/>
-    <tableColumn id="12" xr3:uid="{B9CDBB5A-0158-4B13-B1C4-AE5AF5CB40B8}" name="2009" dataDxfId="29"/>
-    <tableColumn id="13" xr3:uid="{1B7AA019-2800-4CFC-8145-9FB41533532C}" name="2010" dataDxfId="28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3F0F6023-1DCF-4155-A343-6B3C70815431}" name="Table2" displayName="Table2" ref="A1:W54" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54" headerRowBorderDxfId="52" tableBorderDxfId="53" totalsRowBorderDxfId="51">
+  <autoFilter ref="A1:W54" xr:uid="{935029E0-6ACC-499F-8B0A-78E033A148EA}"/>
+  <tableColumns count="23">
+    <tableColumn id="1" xr3:uid="{5BF5EC77-8F39-4E48-B43F-58EC99A747C6}" name="State" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{C526E959-D0A5-4BA1-9F0A-1B727F44C41C}" name="1999" dataDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{C8ADE3BD-00E7-43C4-9B98-6BCBEAA25264}" name="2000" dataDxfId="48"/>
+    <tableColumn id="4" xr3:uid="{C8BB4FE8-AF15-4F11-8334-B1D4B4E56383}" name="2001" dataDxfId="47"/>
+    <tableColumn id="5" xr3:uid="{342B09C3-7575-48B5-A681-43C2358B34C9}" name="2002" dataDxfId="46"/>
+    <tableColumn id="6" xr3:uid="{0461E082-574E-4FD0-B30F-2C70DB3ADF13}" name="2003" dataDxfId="45"/>
+    <tableColumn id="7" xr3:uid="{930D9EF5-B0CA-4875-B223-52A7560CEB3C}" name="2004" dataDxfId="44"/>
+    <tableColumn id="8" xr3:uid="{D963E875-6463-4F32-B46E-055DA212F4D0}" name="2005" dataDxfId="43"/>
+    <tableColumn id="9" xr3:uid="{B158A2B4-12BC-46DA-AA7F-76448669C7C4}" name="2006" dataDxfId="42"/>
+    <tableColumn id="10" xr3:uid="{22296005-DE64-47B9-AD87-CB47B09000AB}" name="2007" dataDxfId="41"/>
+    <tableColumn id="11" xr3:uid="{00DDBA01-B295-4AE8-9FC6-5298573286E3}" name="2008" dataDxfId="40"/>
+    <tableColumn id="12" xr3:uid="{0A67B250-A786-42DC-A69B-05D5E4F68AAA}" name="2009" dataDxfId="39"/>
+    <tableColumn id="13" xr3:uid="{59EF0E65-21EA-4F4F-B692-35BF3F7FF7B8}" name="2010" dataDxfId="38"/>
+    <tableColumn id="14" xr3:uid="{7B115515-4660-48D0-AD4D-DFF69092B81C}" name="2011" dataDxfId="37"/>
+    <tableColumn id="15" xr3:uid="{EAEFA161-C7AB-4EFE-9677-13F67CECD624}" name="2012" dataDxfId="36"/>
+    <tableColumn id="16" xr3:uid="{E21EB9EF-D159-41BE-929C-AFEDF3280CD7}" name="2013" dataDxfId="35"/>
+    <tableColumn id="17" xr3:uid="{5D0F956E-062B-43C2-9319-8B1F211CA24B}" name="2014" dataDxfId="34"/>
+    <tableColumn id="18" xr3:uid="{AFEFADA6-8FB5-4D2D-83DD-62CD32360674}" name="2015" dataDxfId="33"/>
+    <tableColumn id="19" xr3:uid="{87AF16B8-0CAB-41D9-8394-D98A9077FBFA}" name="2016" dataDxfId="32"/>
+    <tableColumn id="20" xr3:uid="{6463CB97-D3B3-40F0-B0A5-188D975005B4}" name="2017" dataDxfId="31"/>
+    <tableColumn id="21" xr3:uid="{76918695-5CDD-4C19-BB1B-31202CF34CA6}" name="2018" dataDxfId="30"/>
+    <tableColumn id="22" xr3:uid="{6298EC54-1B37-4C00-80FC-929188B44EE6}" name="2019" dataDxfId="29"/>
+    <tableColumn id="23" xr3:uid="{FDD4E497-C925-4EB9-A2E5-6B73ABB05320}" name="Total" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2411,7 +3187,7 @@
   </sheetPr>
   <dimension ref="A1:AA57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -6571,2227 +7347,3849 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M54"/>
+  <dimension ref="A1:W54"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection sqref="A1:W54"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:23" ht="12.75">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="16" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="2" t="s">
+      <c r="N1" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="12.75">
+      <c r="A2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="4">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="B2" s="12">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12">
+        <v>0</v>
+      </c>
+      <c r="D2" s="12">
         <v>2</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="12">
         <v>34</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="12">
         <v>25</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="12">
         <v>15</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="12">
         <v>6</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="12">
         <v>8</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="12">
         <v>17</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="12">
         <v>11</v>
       </c>
-      <c r="L2" s="4">
-        <v>0</v>
-      </c>
-      <c r="M2" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="2" t="s">
+      <c r="L2" s="12">
+        <v>0</v>
+      </c>
+      <c r="M2" s="12">
+        <v>1</v>
+      </c>
+      <c r="N2" s="12">
+        <v>5</v>
+      </c>
+      <c r="O2" s="12">
+        <v>38</v>
+      </c>
+      <c r="P2" s="12">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="12">
+        <v>0</v>
+      </c>
+      <c r="R2" s="12">
+        <v>5</v>
+      </c>
+      <c r="S2" s="12">
+        <v>13</v>
+      </c>
+      <c r="T2" s="12">
+        <v>40</v>
+      </c>
+      <c r="U2" s="12">
+        <v>16</v>
+      </c>
+      <c r="V2" s="12">
+        <v>4</v>
+      </c>
+      <c r="W2" s="14">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="12.75">
+      <c r="A3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4">
-        <v>0</v>
-      </c>
-      <c r="J3" s="4">
-        <v>0</v>
-      </c>
-      <c r="K3" s="4">
-        <v>0</v>
-      </c>
-      <c r="L3" s="4">
-        <v>0</v>
-      </c>
-      <c r="M3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="2" t="s">
+      <c r="B3" s="12">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12">
+        <v>0</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0</v>
+      </c>
+      <c r="F3" s="12">
+        <v>0</v>
+      </c>
+      <c r="G3" s="12">
+        <v>0</v>
+      </c>
+      <c r="H3" s="12">
+        <v>0</v>
+      </c>
+      <c r="I3" s="12">
+        <v>0</v>
+      </c>
+      <c r="J3" s="12">
+        <v>0</v>
+      </c>
+      <c r="K3" s="12">
+        <v>0</v>
+      </c>
+      <c r="L3" s="12">
+        <v>0</v>
+      </c>
+      <c r="M3" s="12">
+        <v>0</v>
+      </c>
+      <c r="N3" s="12">
+        <v>0</v>
+      </c>
+      <c r="O3" s="12">
+        <v>0</v>
+      </c>
+      <c r="P3" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="12">
+        <v>0</v>
+      </c>
+      <c r="R3" s="12">
+        <v>0</v>
+      </c>
+      <c r="S3" s="12">
+        <v>0</v>
+      </c>
+      <c r="T3" s="12">
+        <v>0</v>
+      </c>
+      <c r="U3" s="12">
+        <v>1</v>
+      </c>
+      <c r="V3" s="12">
+        <v>0</v>
+      </c>
+      <c r="W3" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="12.75">
+      <c r="A4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
+      <c r="B4" s="12">
+        <v>0</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0</v>
+      </c>
+      <c r="F4" s="12">
         <v>7</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="12">
         <v>215</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="12">
         <v>52</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="12">
         <v>68</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="12">
         <v>50</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="12">
         <v>62</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="12">
         <v>12</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="12">
         <v>107</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="2" t="s">
+      <c r="N4" s="12">
+        <v>49</v>
+      </c>
+      <c r="O4" s="12">
+        <v>87</v>
+      </c>
+      <c r="P4" s="12">
+        <v>50</v>
+      </c>
+      <c r="Q4" s="12">
+        <v>80</v>
+      </c>
+      <c r="R4" s="12">
+        <v>67</v>
+      </c>
+      <c r="S4" s="12">
+        <v>57</v>
+      </c>
+      <c r="T4" s="12">
+        <v>98</v>
+      </c>
+      <c r="U4" s="12">
+        <v>25</v>
+      </c>
+      <c r="V4" s="12">
+        <v>132</v>
+      </c>
+      <c r="W4" s="14">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="12.75">
+      <c r="A5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="4">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="B5" s="12">
+        <v>0</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0</v>
+      </c>
+      <c r="E5" s="12">
         <v>32</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="12">
         <v>23</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="12">
         <v>17</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="12">
         <v>13</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="12">
         <v>24</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="12">
         <v>13</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="12">
         <v>7</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="12">
         <v>6</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="12">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="2" t="s">
+      <c r="N5" s="12">
+        <v>1</v>
+      </c>
+      <c r="O5" s="12">
+        <v>44</v>
+      </c>
+      <c r="P5" s="12">
+        <v>16</v>
+      </c>
+      <c r="Q5" s="12">
+        <v>9</v>
+      </c>
+      <c r="R5" s="12">
+        <v>16</v>
+      </c>
+      <c r="S5" s="12">
+        <v>8</v>
+      </c>
+      <c r="T5" s="12">
+        <v>15</v>
+      </c>
+      <c r="U5" s="12">
+        <v>6</v>
+      </c>
+      <c r="V5" s="12">
+        <v>7</v>
+      </c>
+      <c r="W5" s="14">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="12.75">
+      <c r="A6" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="4">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4">
+      <c r="B6" s="12">
+        <v>0</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0</v>
+      </c>
+      <c r="E6" s="12">
+        <v>1</v>
+      </c>
+      <c r="F6" s="12">
         <v>2</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="12">
         <v>291</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="12">
         <v>305</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="12">
         <v>81</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="12">
         <v>154</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="12">
         <v>292</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="12">
         <v>67</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="12">
         <v>72</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="2" t="s">
+      <c r="N6" s="12">
+        <v>110</v>
+      </c>
+      <c r="O6" s="12">
+        <v>297</v>
+      </c>
+      <c r="P6" s="12">
+        <v>237</v>
+      </c>
+      <c r="Q6" s="12">
+        <v>561</v>
+      </c>
+      <c r="R6" s="12">
+        <v>585</v>
+      </c>
+      <c r="S6" s="12">
+        <v>335</v>
+      </c>
+      <c r="T6" s="12">
+        <v>401</v>
+      </c>
+      <c r="U6" s="12">
+        <v>154</v>
+      </c>
+      <c r="V6" s="12">
+        <v>147</v>
+      </c>
+      <c r="W6" s="14">
+        <v>4092</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="12.75">
+      <c r="A7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="4">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="B7" s="12">
+        <v>0</v>
+      </c>
+      <c r="C7" s="12">
+        <v>0</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0</v>
+      </c>
+      <c r="E7" s="12">
         <v>6</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="12">
         <v>621</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="12">
         <v>41</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="12">
         <v>21</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="12">
         <v>66</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="12">
         <v>99</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="12">
         <v>17</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="12">
         <v>36</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="12">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="2" t="s">
+      <c r="N7" s="12">
+        <v>2</v>
+      </c>
+      <c r="O7" s="12">
+        <v>62</v>
+      </c>
+      <c r="P7" s="12">
+        <v>90</v>
+      </c>
+      <c r="Q7" s="12">
+        <v>46</v>
+      </c>
+      <c r="R7" s="12">
+        <v>57</v>
+      </c>
+      <c r="S7" s="12">
+        <v>59</v>
+      </c>
+      <c r="T7" s="12">
         <v>29</v>
       </c>
-      <c r="B8" s="4">
-        <v>0</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="U7" s="12">
+        <v>52</v>
+      </c>
+      <c r="V7" s="12">
+        <v>52</v>
+      </c>
+      <c r="W7" s="14">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="12.75">
+      <c r="A8" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="12">
+        <v>0</v>
+      </c>
+      <c r="C8" s="12">
+        <v>0</v>
+      </c>
+      <c r="D8" s="12">
         <v>6</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="12">
         <v>10</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="12">
         <v>12</v>
       </c>
-      <c r="G8" s="4">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4">
+      <c r="G8" s="12">
+        <v>0</v>
+      </c>
+      <c r="H8" s="12">
         <v>4</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="12">
         <v>7</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="12">
         <v>2</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="12">
         <v>5</v>
       </c>
-      <c r="L8" s="4">
-        <v>0</v>
-      </c>
-      <c r="M8" s="4">
+      <c r="L8" s="12">
+        <v>0</v>
+      </c>
+      <c r="M8" s="12">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="2" t="s">
+      <c r="N8" s="12">
+        <v>8</v>
+      </c>
+      <c r="O8" s="12">
+        <v>12</v>
+      </c>
+      <c r="P8" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="12">
+        <v>3</v>
+      </c>
+      <c r="R8" s="12">
+        <v>8</v>
+      </c>
+      <c r="S8" s="12">
+        <v>1</v>
+      </c>
+      <c r="T8" s="12">
+        <v>2</v>
+      </c>
+      <c r="U8" s="12">
+        <v>18</v>
+      </c>
+      <c r="V8" s="12">
+        <v>1</v>
+      </c>
+      <c r="W8" s="14">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="12.75">
+      <c r="A9" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="4">
-        <v>0</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4">
+      <c r="B9" s="12">
+        <v>0</v>
+      </c>
+      <c r="C9" s="12">
+        <v>0</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0</v>
+      </c>
+      <c r="F9" s="12">
         <v>12</v>
       </c>
-      <c r="G9" s="4">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4">
-        <v>1</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
-        <v>1</v>
-      </c>
-      <c r="K9" s="4">
-        <v>0</v>
-      </c>
-      <c r="L9" s="4">
-        <v>0</v>
-      </c>
-      <c r="M9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="2" t="s">
+      <c r="G9" s="12">
+        <v>0</v>
+      </c>
+      <c r="H9" s="12">
+        <v>1</v>
+      </c>
+      <c r="I9" s="12">
+        <v>0</v>
+      </c>
+      <c r="J9" s="12">
+        <v>1</v>
+      </c>
+      <c r="K9" s="12">
+        <v>0</v>
+      </c>
+      <c r="L9" s="12">
+        <v>0</v>
+      </c>
+      <c r="M9" s="12">
+        <v>0</v>
+      </c>
+      <c r="N9" s="12">
+        <v>1</v>
+      </c>
+      <c r="O9" s="12">
+        <v>2</v>
+      </c>
+      <c r="P9" s="12">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="12">
+        <v>0</v>
+      </c>
+      <c r="R9" s="12">
+        <v>0</v>
+      </c>
+      <c r="S9" s="12">
+        <v>0</v>
+      </c>
+      <c r="T9" s="12">
+        <v>0</v>
+      </c>
+      <c r="U9" s="12">
+        <v>8</v>
+      </c>
+      <c r="V9" s="12">
+        <v>0</v>
+      </c>
+      <c r="W9" s="14">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="12.75">
+      <c r="A10" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="4">
-        <v>0</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="B10" s="12">
+        <v>0</v>
+      </c>
+      <c r="C10" s="12">
+        <v>0</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0</v>
+      </c>
+      <c r="E10" s="12">
         <v>14</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="12">
         <v>3</v>
       </c>
-      <c r="G10" s="4">
-        <v>1</v>
-      </c>
-      <c r="H10" s="4">
+      <c r="G10" s="12">
+        <v>1</v>
+      </c>
+      <c r="H10" s="12">
         <v>3</v>
       </c>
-      <c r="I10" s="4">
-        <v>0</v>
-      </c>
-      <c r="J10" s="4">
-        <v>0</v>
-      </c>
-      <c r="K10" s="4">
+      <c r="I10" s="12">
+        <v>0</v>
+      </c>
+      <c r="J10" s="12">
+        <v>0</v>
+      </c>
+      <c r="K10" s="12">
         <v>4</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="12">
         <v>2</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="2" t="s">
+      <c r="N10" s="12">
+        <v>10</v>
+      </c>
+      <c r="O10" s="12">
+        <v>8</v>
+      </c>
+      <c r="P10" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="12">
+        <v>1</v>
+      </c>
+      <c r="R10" s="12">
+        <v>3</v>
+      </c>
+      <c r="S10" s="12">
+        <v>1</v>
+      </c>
+      <c r="T10" s="12">
+        <v>1</v>
+      </c>
+      <c r="U10" s="12">
+        <v>7</v>
+      </c>
+      <c r="V10" s="12">
+        <v>9</v>
+      </c>
+      <c r="W10" s="14">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="12.75">
+      <c r="A11" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="4">
-        <v>0</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0</v>
-      </c>
-      <c r="D11" s="4">
+      <c r="B11" s="12">
+        <v>0</v>
+      </c>
+      <c r="C11" s="12">
+        <v>0</v>
+      </c>
+      <c r="D11" s="12">
         <v>12</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="12">
         <v>28</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="12">
         <v>61</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="12">
         <v>33</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="12">
         <v>10</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="12">
         <v>3</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="12">
         <v>3</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="12">
         <v>3</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="12">
         <v>2</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="12">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="2" t="s">
+      <c r="N11" s="12">
+        <v>20</v>
+      </c>
+      <c r="O11" s="12">
+        <v>52</v>
+      </c>
+      <c r="P11" s="12">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="12">
+        <v>12</v>
+      </c>
+      <c r="R11" s="12">
+        <v>12</v>
+      </c>
+      <c r="S11" s="12">
+        <v>6</v>
+      </c>
+      <c r="T11" s="12">
+        <v>4</v>
+      </c>
+      <c r="U11" s="12">
+        <v>30</v>
+      </c>
+      <c r="V11" s="12">
+        <v>2</v>
+      </c>
+      <c r="W11" s="14">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="12.75">
+      <c r="A12" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="4">
-        <v>0</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0</v>
-      </c>
-      <c r="D12" s="4">
+      <c r="B12" s="12">
+        <v>0</v>
+      </c>
+      <c r="C12" s="12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="12">
         <v>6</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="12">
         <v>28</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="12">
         <v>27</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="12">
         <v>14</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="12">
         <v>9</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="12">
         <v>2</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="12">
         <v>23</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="12">
         <v>4</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="12">
         <v>4</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="12">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="2" t="s">
+      <c r="N12" s="12">
+        <v>14</v>
+      </c>
+      <c r="O12" s="12">
+        <v>46</v>
+      </c>
+      <c r="P12" s="12">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="12">
+        <v>11</v>
+      </c>
+      <c r="R12" s="12">
+        <v>13</v>
+      </c>
+      <c r="S12" s="12">
+        <v>4</v>
+      </c>
+      <c r="T12" s="12">
+        <v>44</v>
+      </c>
+      <c r="U12" s="12">
+        <v>30</v>
+      </c>
+      <c r="V12" s="12">
+        <v>9</v>
+      </c>
+      <c r="W12" s="14">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="12.75">
+      <c r="A13" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="4">
-        <v>0</v>
-      </c>
-      <c r="C13" s="4">
-        <v>0</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0</v>
-      </c>
-      <c r="G13" s="4">
-        <v>0</v>
-      </c>
-      <c r="H13" s="4">
-        <v>0</v>
-      </c>
-      <c r="I13" s="4">
-        <v>0</v>
-      </c>
-      <c r="J13" s="4">
-        <v>0</v>
-      </c>
-      <c r="K13" s="4">
-        <v>0</v>
-      </c>
-      <c r="L13" s="4">
-        <v>0</v>
-      </c>
-      <c r="M13" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="2" t="s">
+      <c r="B13" s="12">
+        <v>0</v>
+      </c>
+      <c r="C13" s="12">
+        <v>0</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0</v>
+      </c>
+      <c r="F13" s="12">
+        <v>0</v>
+      </c>
+      <c r="G13" s="12">
+        <v>0</v>
+      </c>
+      <c r="H13" s="12">
+        <v>0</v>
+      </c>
+      <c r="I13" s="12">
+        <v>0</v>
+      </c>
+      <c r="J13" s="12">
+        <v>0</v>
+      </c>
+      <c r="K13" s="12">
+        <v>0</v>
+      </c>
+      <c r="L13" s="12">
+        <v>0</v>
+      </c>
+      <c r="M13" s="12">
+        <v>0</v>
+      </c>
+      <c r="N13" s="12">
+        <v>0</v>
+      </c>
+      <c r="O13" s="12">
+        <v>0</v>
+      </c>
+      <c r="P13" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="12">
+        <v>0</v>
+      </c>
+      <c r="R13" s="12">
+        <v>0</v>
+      </c>
+      <c r="S13" s="12">
+        <v>0</v>
+      </c>
+      <c r="T13" s="12">
+        <v>0</v>
+      </c>
+      <c r="U13" s="12">
+        <v>0</v>
+      </c>
+      <c r="V13" s="12">
+        <v>0</v>
+      </c>
+      <c r="W13" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="12.75">
+      <c r="A14" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="4">
-        <v>0</v>
-      </c>
-      <c r="C14" s="4">
-        <v>0</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0</v>
-      </c>
-      <c r="F14" s="4">
-        <v>0</v>
-      </c>
-      <c r="G14" s="4">
-        <v>1</v>
-      </c>
-      <c r="H14" s="4">
+      <c r="B14" s="12">
+        <v>0</v>
+      </c>
+      <c r="C14" s="12">
+        <v>0</v>
+      </c>
+      <c r="D14" s="12">
+        <v>0</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0</v>
+      </c>
+      <c r="F14" s="12">
+        <v>0</v>
+      </c>
+      <c r="G14" s="12">
+        <v>1</v>
+      </c>
+      <c r="H14" s="12">
         <v>3</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="12">
         <v>139</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="12">
         <v>11</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="12">
         <v>4</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="12">
         <v>9</v>
       </c>
-      <c r="M14" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="2" t="s">
+      <c r="M14" s="12">
+        <v>0</v>
+      </c>
+      <c r="N14" s="12">
+        <v>1</v>
+      </c>
+      <c r="O14" s="12">
+        <v>5</v>
+      </c>
+      <c r="P14" s="12">
+        <v>14</v>
+      </c>
+      <c r="Q14" s="12">
+        <v>6</v>
+      </c>
+      <c r="R14" s="12">
+        <v>5</v>
+      </c>
+      <c r="S14" s="12">
+        <v>3</v>
+      </c>
+      <c r="T14" s="12">
+        <v>16</v>
+      </c>
+      <c r="U14" s="12">
+        <v>10</v>
+      </c>
+      <c r="V14" s="12">
+        <v>5</v>
+      </c>
+      <c r="W14" s="14">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="12.75">
+      <c r="A15" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="4">
-        <v>0</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0</v>
-      </c>
-      <c r="E15" s="4">
+      <c r="B15" s="12">
+        <v>0</v>
+      </c>
+      <c r="C15" s="12">
+        <v>0</v>
+      </c>
+      <c r="D15" s="12">
+        <v>0</v>
+      </c>
+      <c r="E15" s="12">
         <v>553</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="12">
         <v>30</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="12">
         <v>29</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="12">
         <v>137</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="12">
         <v>127</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="12">
         <v>63</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="12">
         <v>12</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="12">
         <v>5</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15" s="12">
         <v>45</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="2" t="s">
+      <c r="N15" s="12">
+        <v>22</v>
+      </c>
+      <c r="O15" s="12">
+        <v>187</v>
+      </c>
+      <c r="P15" s="12">
+        <v>86</v>
+      </c>
+      <c r="Q15" s="12">
+        <v>36</v>
+      </c>
+      <c r="R15" s="12">
+        <v>51</v>
+      </c>
+      <c r="S15" s="12">
+        <v>98</v>
+      </c>
+      <c r="T15" s="12">
+        <v>72</v>
+      </c>
+      <c r="U15" s="12">
+        <v>126</v>
+      </c>
+      <c r="V15" s="12">
+        <v>22</v>
+      </c>
+      <c r="W15" s="14">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="12.75">
+      <c r="A16" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="4">
-        <v>0</v>
-      </c>
-      <c r="C16" s="4">
-        <v>0</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0</v>
-      </c>
-      <c r="E16" s="4">
+      <c r="B16" s="12">
+        <v>0</v>
+      </c>
+      <c r="C16" s="12">
+        <v>0</v>
+      </c>
+      <c r="D16" s="12">
+        <v>0</v>
+      </c>
+      <c r="E16" s="12">
         <v>180</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="12">
         <v>15</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="12">
         <v>8</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="12">
         <v>11</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="12">
         <v>27</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="12">
         <v>14</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="12">
         <v>3</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="12">
         <v>2</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M16" s="12">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="2" t="s">
+      <c r="N16" s="12">
+        <v>7</v>
+      </c>
+      <c r="O16" s="12">
+        <v>46</v>
+      </c>
+      <c r="P16" s="12">
+        <v>19</v>
+      </c>
+      <c r="Q16" s="12">
+        <v>9</v>
+      </c>
+      <c r="R16" s="12">
+        <v>16</v>
+      </c>
+      <c r="S16" s="12">
+        <v>15</v>
+      </c>
+      <c r="T16" s="12">
+        <v>18</v>
+      </c>
+      <c r="U16" s="12">
+        <v>26</v>
+      </c>
+      <c r="V16" s="12">
+        <v>4</v>
+      </c>
+      <c r="W16" s="14">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="12.75">
+      <c r="A17" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="4">
-        <v>0</v>
-      </c>
-      <c r="C17" s="4">
-        <v>0</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0</v>
-      </c>
-      <c r="E17" s="4">
+      <c r="B17" s="12">
+        <v>0</v>
+      </c>
+      <c r="C17" s="12">
+        <v>0</v>
+      </c>
+      <c r="D17" s="12">
+        <v>0</v>
+      </c>
+      <c r="E17" s="12">
         <v>27</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="12">
         <v>81</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="12">
         <v>13</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="12">
         <v>14</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="12">
         <v>22</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="12">
         <v>12</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="12">
         <v>3</v>
       </c>
-      <c r="L17" s="4">
-        <v>0</v>
-      </c>
-      <c r="M17" s="4">
+      <c r="L17" s="12">
+        <v>0</v>
+      </c>
+      <c r="M17" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="2" t="s">
+      <c r="N17" s="12">
+        <v>5</v>
+      </c>
+      <c r="O17" s="12">
+        <v>11</v>
+      </c>
+      <c r="P17" s="12">
+        <v>24</v>
+      </c>
+      <c r="Q17" s="12">
+        <v>5</v>
+      </c>
+      <c r="R17" s="12">
+        <v>4</v>
+      </c>
+      <c r="S17" s="12">
+        <v>16</v>
+      </c>
+      <c r="T17" s="12">
+        <v>10</v>
+      </c>
+      <c r="U17" s="12">
+        <v>59</v>
+      </c>
+      <c r="V17" s="12">
+        <v>1</v>
+      </c>
+      <c r="W17" s="14">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="12.75">
+      <c r="A18" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="4">
-        <v>0</v>
-      </c>
-      <c r="C18" s="4">
-        <v>0</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0</v>
-      </c>
-      <c r="E18" s="4">
+      <c r="B18" s="12">
+        <v>0</v>
+      </c>
+      <c r="C18" s="12">
+        <v>0</v>
+      </c>
+      <c r="D18" s="12">
+        <v>0</v>
+      </c>
+      <c r="E18" s="12">
         <v>22</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="12">
         <v>89</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="12">
         <v>18</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="12">
         <v>17</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="12">
         <v>17</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="12">
         <v>14</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="12">
         <v>14</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="12">
         <v>4</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M18" s="12">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="2" t="s">
+      <c r="N18" s="12">
+        <v>4</v>
+      </c>
+      <c r="O18" s="12">
+        <v>20</v>
+      </c>
+      <c r="P18" s="12">
+        <v>34</v>
+      </c>
+      <c r="Q18" s="12">
+        <v>18</v>
+      </c>
+      <c r="R18" s="12">
+        <v>12</v>
+      </c>
+      <c r="S18" s="12">
+        <v>18</v>
+      </c>
+      <c r="T18" s="12">
+        <v>12</v>
+      </c>
+      <c r="U18" s="12">
+        <v>23</v>
+      </c>
+      <c r="V18" s="12">
+        <v>7</v>
+      </c>
+      <c r="W18" s="14">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="12.75">
+      <c r="A19" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="4">
-        <v>0</v>
-      </c>
-      <c r="C19" s="4">
-        <v>0</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0</v>
-      </c>
-      <c r="E19" s="4">
+      <c r="B19" s="12">
+        <v>0</v>
+      </c>
+      <c r="C19" s="12">
+        <v>0</v>
+      </c>
+      <c r="D19" s="12">
+        <v>0</v>
+      </c>
+      <c r="E19" s="12">
         <v>53</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="12">
         <v>11</v>
       </c>
-      <c r="G19" s="4">
-        <v>1</v>
-      </c>
-      <c r="H19" s="4">
+      <c r="G19" s="12">
+        <v>1</v>
+      </c>
+      <c r="H19" s="12">
         <v>5</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="12">
         <v>5</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="12">
         <v>4</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="12">
         <v>3</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L19" s="12">
         <v>3</v>
       </c>
-      <c r="M19" s="4">
+      <c r="M19" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="2" t="s">
+      <c r="N19" s="12">
+        <v>4</v>
+      </c>
+      <c r="O19" s="12">
+        <v>13</v>
+      </c>
+      <c r="P19" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="12">
+        <v>0</v>
+      </c>
+      <c r="R19" s="12">
+        <v>1</v>
+      </c>
+      <c r="S19" s="12">
+        <v>5</v>
+      </c>
+      <c r="T19" s="12">
+        <v>9</v>
+      </c>
+      <c r="U19" s="12">
+        <v>9</v>
+      </c>
+      <c r="V19" s="12">
+        <v>4</v>
+      </c>
+      <c r="W19" s="14">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="12.75">
+      <c r="A20" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="4">
-        <v>0</v>
-      </c>
-      <c r="C20" s="4">
-        <v>0</v>
-      </c>
-      <c r="D20" s="4">
-        <v>1</v>
-      </c>
-      <c r="E20" s="4">
+      <c r="B20" s="12">
+        <v>0</v>
+      </c>
+      <c r="C20" s="12">
+        <v>0</v>
+      </c>
+      <c r="D20" s="12">
+        <v>1</v>
+      </c>
+      <c r="E20" s="12">
         <v>204</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="12">
         <v>101</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="12">
         <v>85</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="12">
         <v>117</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="12">
         <v>91</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="12">
         <v>27</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="12">
         <v>18</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L20" s="12">
         <v>10</v>
       </c>
-      <c r="M20" s="4">
+      <c r="M20" s="12">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="2" t="s">
+      <c r="N20" s="12">
+        <v>6</v>
+      </c>
+      <c r="O20" s="12">
+        <v>155</v>
+      </c>
+      <c r="P20" s="12">
+        <v>34</v>
+      </c>
+      <c r="Q20" s="12">
+        <v>61</v>
+      </c>
+      <c r="R20" s="12">
+        <v>41</v>
+      </c>
+      <c r="S20" s="12">
+        <v>38</v>
+      </c>
+      <c r="T20" s="12">
+        <v>38</v>
+      </c>
+      <c r="U20" s="12">
+        <v>56</v>
+      </c>
+      <c r="V20" s="12">
+        <v>11</v>
+      </c>
+      <c r="W20" s="14">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="12.75">
+      <c r="A21" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="4">
-        <v>0</v>
-      </c>
-      <c r="C21" s="4">
-        <v>0</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0</v>
-      </c>
-      <c r="F21" s="4">
-        <v>0</v>
-      </c>
-      <c r="G21" s="4">
-        <v>0</v>
-      </c>
-      <c r="H21" s="4">
-        <v>0</v>
-      </c>
-      <c r="I21" s="4">
-        <v>0</v>
-      </c>
-      <c r="J21" s="4">
-        <v>0</v>
-      </c>
-      <c r="K21" s="4">
-        <v>0</v>
-      </c>
-      <c r="L21" s="4">
-        <v>0</v>
-      </c>
-      <c r="M21" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="2" t="s">
+      <c r="B21" s="12">
+        <v>0</v>
+      </c>
+      <c r="C21" s="12">
+        <v>0</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0</v>
+      </c>
+      <c r="E21" s="12">
+        <v>0</v>
+      </c>
+      <c r="F21" s="12">
+        <v>0</v>
+      </c>
+      <c r="G21" s="12">
+        <v>0</v>
+      </c>
+      <c r="H21" s="12">
+        <v>0</v>
+      </c>
+      <c r="I21" s="12">
+        <v>0</v>
+      </c>
+      <c r="J21" s="12">
+        <v>0</v>
+      </c>
+      <c r="K21" s="12">
+        <v>0</v>
+      </c>
+      <c r="L21" s="12">
+        <v>0</v>
+      </c>
+      <c r="M21" s="12">
+        <v>0</v>
+      </c>
+      <c r="N21" s="12">
+        <v>0</v>
+      </c>
+      <c r="O21" s="12">
+        <v>1</v>
+      </c>
+      <c r="P21" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="12">
+        <v>0</v>
+      </c>
+      <c r="R21" s="12">
+        <v>1</v>
+      </c>
+      <c r="S21" s="12">
+        <v>0</v>
+      </c>
+      <c r="T21" s="12">
+        <v>0</v>
+      </c>
+      <c r="U21" s="12">
+        <v>1</v>
+      </c>
+      <c r="V21" s="12">
+        <v>0</v>
+      </c>
+      <c r="W21" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="12.75">
+      <c r="A22" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="4">
-        <v>0</v>
-      </c>
-      <c r="C22" s="4">
-        <v>0</v>
-      </c>
-      <c r="D22" s="4">
+      <c r="B22" s="12">
+        <v>0</v>
+      </c>
+      <c r="C22" s="12">
+        <v>0</v>
+      </c>
+      <c r="D22" s="12">
         <v>6</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="12">
         <v>22</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="12">
         <v>49</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="12">
         <v>10</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="12">
         <v>4</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="12">
         <v>10</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="12">
         <v>6</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="12">
         <v>6</v>
       </c>
-      <c r="L22" s="4">
-        <v>0</v>
-      </c>
-      <c r="M22" s="4">
+      <c r="L22" s="12">
+        <v>0</v>
+      </c>
+      <c r="M22" s="12">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="2" t="s">
+      <c r="N22" s="12">
+        <v>10</v>
+      </c>
+      <c r="O22" s="12">
+        <v>25</v>
+      </c>
+      <c r="P22" s="12">
+        <v>11</v>
+      </c>
+      <c r="Q22" s="12">
+        <v>6</v>
+      </c>
+      <c r="R22" s="12">
+        <v>31</v>
+      </c>
+      <c r="S22" s="12">
+        <v>6</v>
+      </c>
+      <c r="T22" s="12">
+        <v>5</v>
+      </c>
+      <c r="U22" s="12">
+        <v>35</v>
+      </c>
+      <c r="V22" s="12">
+        <v>6</v>
+      </c>
+      <c r="W22" s="14">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="12.75">
+      <c r="A23" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="4">
-        <v>0</v>
-      </c>
-      <c r="C23" s="4">
-        <v>0</v>
-      </c>
-      <c r="D23" s="4">
+      <c r="B23" s="12">
+        <v>0</v>
+      </c>
+      <c r="C23" s="12">
+        <v>0</v>
+      </c>
+      <c r="D23" s="12">
         <v>3</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="12">
         <v>19</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="12">
         <v>12</v>
       </c>
-      <c r="G23" s="4">
-        <v>0</v>
-      </c>
-      <c r="H23" s="4">
+      <c r="G23" s="12">
+        <v>0</v>
+      </c>
+      <c r="H23" s="12">
         <v>4</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="12">
         <v>2</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="12">
         <v>3</v>
       </c>
-      <c r="K23" s="4">
-        <v>1</v>
-      </c>
-      <c r="L23" s="4">
-        <v>0</v>
-      </c>
-      <c r="M23" s="4">
+      <c r="K23" s="12">
+        <v>1</v>
+      </c>
+      <c r="L23" s="12">
+        <v>0</v>
+      </c>
+      <c r="M23" s="12">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="2" t="s">
+      <c r="N23" s="12">
+        <v>5</v>
+      </c>
+      <c r="O23" s="12">
+        <v>25</v>
+      </c>
+      <c r="P23" s="12">
+        <v>7</v>
+      </c>
+      <c r="Q23" s="12">
+        <v>5</v>
+      </c>
+      <c r="R23" s="12">
+        <v>7</v>
+      </c>
+      <c r="S23" s="12">
+        <v>10</v>
+      </c>
+      <c r="T23" s="12">
+        <v>5</v>
+      </c>
+      <c r="U23" s="12">
+        <v>42</v>
+      </c>
+      <c r="V23" s="12">
+        <v>2</v>
+      </c>
+      <c r="W23" s="14">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="12.75">
+      <c r="A24" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="4">
-        <v>0</v>
-      </c>
-      <c r="C24" s="4">
-        <v>0</v>
-      </c>
-      <c r="D24" s="4">
-        <v>0</v>
-      </c>
-      <c r="E24" s="4">
+      <c r="B24" s="12">
+        <v>0</v>
+      </c>
+      <c r="C24" s="12">
+        <v>0</v>
+      </c>
+      <c r="D24" s="12">
+        <v>0</v>
+      </c>
+      <c r="E24" s="12">
         <v>557</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="12">
         <v>14</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="12">
         <v>13</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="12">
         <v>54</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="12">
         <v>43</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="12">
         <v>16</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="12">
         <v>11</v>
       </c>
-      <c r="L24" s="4">
-        <v>1</v>
-      </c>
-      <c r="M24" s="4">
+      <c r="L24" s="12">
+        <v>1</v>
+      </c>
+      <c r="M24" s="12">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="2" t="s">
+      <c r="N24" s="12">
+        <v>32</v>
+      </c>
+      <c r="O24" s="12">
+        <v>141</v>
+      </c>
+      <c r="P24" s="12">
+        <v>24</v>
+      </c>
+      <c r="Q24" s="12">
+        <v>1</v>
+      </c>
+      <c r="R24" s="12">
+        <v>16</v>
+      </c>
+      <c r="S24" s="12">
+        <v>42</v>
+      </c>
+      <c r="T24" s="12">
+        <v>32</v>
+      </c>
+      <c r="U24" s="12">
+        <v>80</v>
+      </c>
+      <c r="V24" s="12">
+        <v>11</v>
+      </c>
+      <c r="W24" s="14">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="12.75">
+      <c r="A25" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="4">
-        <v>0</v>
-      </c>
-      <c r="C25" s="4">
-        <v>0</v>
-      </c>
-      <c r="D25" s="4">
-        <v>0</v>
-      </c>
-      <c r="E25" s="4">
+      <c r="B25" s="12">
+        <v>0</v>
+      </c>
+      <c r="C25" s="12">
+        <v>0</v>
+      </c>
+      <c r="D25" s="12">
+        <v>0</v>
+      </c>
+      <c r="E25" s="12">
         <v>16</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="12">
         <v>48</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="12">
         <v>13</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="12">
         <v>18</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="12">
         <v>31</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="12">
         <v>44</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25" s="12">
         <v>2</v>
       </c>
-      <c r="L25" s="4">
-        <v>1</v>
-      </c>
-      <c r="M25" s="4">
+      <c r="L25" s="12">
+        <v>1</v>
+      </c>
+      <c r="M25" s="12">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="2" t="s">
+      <c r="N25" s="12">
+        <v>1</v>
+      </c>
+      <c r="O25" s="12">
+        <v>34</v>
+      </c>
+      <c r="P25" s="12">
+        <v>31</v>
+      </c>
+      <c r="Q25" s="12">
+        <v>6</v>
+      </c>
+      <c r="R25" s="12">
+        <v>3</v>
+      </c>
+      <c r="S25" s="12">
+        <v>38</v>
+      </c>
+      <c r="T25" s="12">
+        <v>13</v>
+      </c>
+      <c r="U25" s="12">
+        <v>34</v>
+      </c>
+      <c r="V25" s="12">
+        <v>2</v>
+      </c>
+      <c r="W25" s="14">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="12.75">
+      <c r="A26" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="4">
-        <v>0</v>
-      </c>
-      <c r="C26" s="4">
-        <v>0</v>
-      </c>
-      <c r="D26" s="4">
-        <v>0</v>
-      </c>
-      <c r="E26" s="4">
+      <c r="B26" s="12">
+        <v>0</v>
+      </c>
+      <c r="C26" s="12">
+        <v>0</v>
+      </c>
+      <c r="D26" s="12">
+        <v>0</v>
+      </c>
+      <c r="E26" s="12">
         <v>162</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="12">
         <v>34</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="12">
         <v>31</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="12">
         <v>39</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="12">
         <v>89</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="12">
         <v>50</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="12">
         <v>22</v>
       </c>
-      <c r="L26" s="4">
+      <c r="L26" s="12">
         <v>31</v>
       </c>
-      <c r="M26" s="4">
+      <c r="M26" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="2" t="s">
+      <c r="N26" s="12">
+        <v>31</v>
+      </c>
+      <c r="O26" s="12">
+        <v>103</v>
+      </c>
+      <c r="P26" s="12">
+        <v>27</v>
+      </c>
+      <c r="Q26" s="12">
+        <v>26</v>
+      </c>
+      <c r="R26" s="12">
+        <v>25</v>
+      </c>
+      <c r="S26" s="12">
+        <v>27</v>
+      </c>
+      <c r="T26" s="12">
+        <v>46</v>
+      </c>
+      <c r="U26" s="12">
+        <v>31</v>
+      </c>
+      <c r="V26" s="12">
+        <v>12</v>
+      </c>
+      <c r="W26" s="14">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="12.75">
+      <c r="A27" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="4">
-        <v>0</v>
-      </c>
-      <c r="C27" s="4">
-        <v>0</v>
-      </c>
-      <c r="D27" s="4">
-        <v>0</v>
-      </c>
-      <c r="E27" s="4">
+      <c r="B27" s="12">
+        <v>0</v>
+      </c>
+      <c r="C27" s="12">
+        <v>0</v>
+      </c>
+      <c r="D27" s="12">
+        <v>0</v>
+      </c>
+      <c r="E27" s="12">
         <v>126</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="12">
         <v>39</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="12">
         <v>27</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="12">
         <v>17</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27" s="12">
         <v>51</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="12">
         <v>61</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K27" s="12">
         <v>12</v>
       </c>
-      <c r="L27" s="4">
+      <c r="L27" s="12">
         <v>4</v>
       </c>
-      <c r="M27" s="4">
+      <c r="M27" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="2" t="s">
+      <c r="N27" s="12">
+        <v>6</v>
+      </c>
+      <c r="O27" s="12">
+        <v>17</v>
+      </c>
+      <c r="P27" s="12">
+        <v>24</v>
+      </c>
+      <c r="Q27" s="12">
+        <v>10</v>
+      </c>
+      <c r="R27" s="12">
+        <v>23</v>
+      </c>
+      <c r="S27" s="12">
+        <v>9</v>
+      </c>
+      <c r="T27" s="12">
+        <v>17</v>
+      </c>
+      <c r="U27" s="12">
+        <v>17</v>
+      </c>
+      <c r="V27" s="12">
+        <v>4</v>
+      </c>
+      <c r="W27" s="14">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="12.75">
+      <c r="A28" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="4">
-        <v>0</v>
-      </c>
-      <c r="C28" s="4">
-        <v>0</v>
-      </c>
-      <c r="D28" s="4">
-        <v>0</v>
-      </c>
-      <c r="E28" s="4">
+      <c r="B28" s="12">
+        <v>0</v>
+      </c>
+      <c r="C28" s="12">
+        <v>0</v>
+      </c>
+      <c r="D28" s="12">
+        <v>0</v>
+      </c>
+      <c r="E28" s="12">
         <v>2</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="12">
         <v>75</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="12">
         <v>2</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="12">
         <v>8</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I28" s="12">
         <v>12</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J28" s="12">
         <v>37</v>
       </c>
-      <c r="K28" s="4">
-        <v>0</v>
-      </c>
-      <c r="L28" s="4">
+      <c r="K28" s="12">
+        <v>0</v>
+      </c>
+      <c r="L28" s="12">
         <v>2</v>
       </c>
-      <c r="M28" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="2" t="s">
+      <c r="M28" s="12">
+        <v>0</v>
+      </c>
+      <c r="N28" s="12">
+        <v>1</v>
+      </c>
+      <c r="O28" s="12">
+        <v>1</v>
+      </c>
+      <c r="P28" s="12">
+        <v>10</v>
+      </c>
+      <c r="Q28" s="12">
+        <v>2</v>
+      </c>
+      <c r="R28" s="12">
+        <v>3</v>
+      </c>
+      <c r="S28" s="12">
+        <v>3</v>
+      </c>
+      <c r="T28" s="12">
+        <v>3</v>
+      </c>
+      <c r="U28" s="12">
+        <v>25</v>
+      </c>
+      <c r="V28" s="12">
+        <v>3</v>
+      </c>
+      <c r="W28" s="14">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="12.75">
+      <c r="A29" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="4">
-        <v>0</v>
-      </c>
-      <c r="C29" s="4">
-        <v>0</v>
-      </c>
-      <c r="D29" s="4">
-        <v>0</v>
-      </c>
-      <c r="E29" s="4">
+      <c r="B29" s="12">
+        <v>0</v>
+      </c>
+      <c r="C29" s="12">
+        <v>0</v>
+      </c>
+      <c r="D29" s="12">
+        <v>0</v>
+      </c>
+      <c r="E29" s="12">
         <v>84</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="12">
         <v>194</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="12">
         <v>7</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="12">
         <v>55</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I29" s="12">
         <v>45</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29" s="12">
         <v>21</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K29" s="12">
         <v>7</v>
       </c>
-      <c r="L29" s="4">
+      <c r="L29" s="12">
         <v>11</v>
       </c>
-      <c r="M29" s="4">
+      <c r="M29" s="12">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="2" t="s">
+      <c r="N29" s="12">
+        <v>14</v>
+      </c>
+      <c r="O29" s="12">
+        <v>42</v>
+      </c>
+      <c r="P29" s="12">
+        <v>54</v>
+      </c>
+      <c r="Q29" s="12">
+        <v>41</v>
+      </c>
+      <c r="R29" s="12">
+        <v>19</v>
+      </c>
+      <c r="S29" s="12">
+        <v>35</v>
+      </c>
+      <c r="T29" s="12">
+        <v>19</v>
+      </c>
+      <c r="U29" s="12">
+        <v>124</v>
+      </c>
+      <c r="V29" s="12">
+        <v>17</v>
+      </c>
+      <c r="W29" s="14">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="12.75">
+      <c r="A30" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="4">
-        <v>0</v>
-      </c>
-      <c r="C30" s="4">
-        <v>0</v>
-      </c>
-      <c r="D30" s="4">
-        <v>0</v>
-      </c>
-      <c r="E30" s="4">
-        <v>0</v>
-      </c>
-      <c r="F30" s="4">
+      <c r="B30" s="12">
+        <v>0</v>
+      </c>
+      <c r="C30" s="12">
+        <v>0</v>
+      </c>
+      <c r="D30" s="12">
+        <v>0</v>
+      </c>
+      <c r="E30" s="12">
+        <v>0</v>
+      </c>
+      <c r="F30" s="12">
         <v>2</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="12">
         <v>25</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="12">
         <v>14</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I30" s="12">
         <v>34</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30" s="12">
         <v>2</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K30" s="12">
         <v>9</v>
       </c>
-      <c r="L30" s="4">
+      <c r="L30" s="12">
         <v>7</v>
       </c>
-      <c r="M30" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="2" t="s">
+      <c r="M30" s="12">
+        <v>0</v>
+      </c>
+      <c r="N30" s="12">
+        <v>12</v>
+      </c>
+      <c r="O30" s="12">
+        <v>5</v>
+      </c>
+      <c r="P30" s="12">
+        <v>8</v>
+      </c>
+      <c r="Q30" s="12">
+        <v>3</v>
+      </c>
+      <c r="R30" s="12">
+        <v>4</v>
+      </c>
+      <c r="S30" s="12">
+        <v>13</v>
+      </c>
+      <c r="T30" s="12">
+        <v>31</v>
+      </c>
+      <c r="U30" s="12">
+        <v>3</v>
+      </c>
+      <c r="V30" s="12">
+        <v>34</v>
+      </c>
+      <c r="W30" s="14">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="12.75">
+      <c r="A31" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="4">
-        <v>0</v>
-      </c>
-      <c r="C31" s="4">
-        <v>0</v>
-      </c>
-      <c r="D31" s="4">
-        <v>0</v>
-      </c>
-      <c r="E31" s="4">
-        <v>0</v>
-      </c>
-      <c r="F31" s="4">
+      <c r="B31" s="12">
+        <v>0</v>
+      </c>
+      <c r="C31" s="12">
+        <v>0</v>
+      </c>
+      <c r="D31" s="12">
+        <v>0</v>
+      </c>
+      <c r="E31" s="12">
+        <v>0</v>
+      </c>
+      <c r="F31" s="12">
         <v>2</v>
       </c>
-      <c r="G31" s="4">
-        <v>0</v>
-      </c>
-      <c r="H31" s="4">
-        <v>0</v>
-      </c>
-      <c r="I31" s="4">
-        <v>0</v>
-      </c>
-      <c r="J31" s="4">
-        <v>0</v>
-      </c>
-      <c r="K31" s="4">
-        <v>0</v>
-      </c>
-      <c r="L31" s="4">
-        <v>0</v>
-      </c>
-      <c r="M31" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="2" t="s">
+      <c r="G31" s="12">
+        <v>0</v>
+      </c>
+      <c r="H31" s="12">
+        <v>0</v>
+      </c>
+      <c r="I31" s="12">
+        <v>0</v>
+      </c>
+      <c r="J31" s="12">
+        <v>0</v>
+      </c>
+      <c r="K31" s="12">
+        <v>0</v>
+      </c>
+      <c r="L31" s="12">
+        <v>0</v>
+      </c>
+      <c r="M31" s="12">
+        <v>1</v>
+      </c>
+      <c r="N31" s="12">
+        <v>0</v>
+      </c>
+      <c r="O31" s="12">
+        <v>1</v>
+      </c>
+      <c r="P31" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="12">
+        <v>0</v>
+      </c>
+      <c r="R31" s="12">
+        <v>0</v>
+      </c>
+      <c r="S31" s="12">
+        <v>0</v>
+      </c>
+      <c r="T31" s="12">
+        <v>0</v>
+      </c>
+      <c r="U31" s="12">
+        <v>0</v>
+      </c>
+      <c r="V31" s="12">
+        <v>0</v>
+      </c>
+      <c r="W31" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="12.75">
+      <c r="A32" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="4">
-        <v>0</v>
-      </c>
-      <c r="C32" s="4">
+      <c r="B32" s="12">
+        <v>0</v>
+      </c>
+      <c r="C32" s="12">
         <v>5</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="12">
         <v>12</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="12">
         <v>16</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="12">
         <v>21</v>
       </c>
-      <c r="G32" s="4">
-        <v>1</v>
-      </c>
-      <c r="H32" s="4">
+      <c r="G32" s="12">
+        <v>1</v>
+      </c>
+      <c r="H32" s="12">
         <v>3</v>
       </c>
-      <c r="I32" s="4">
+      <c r="I32" s="12">
         <v>2</v>
       </c>
-      <c r="J32" s="4">
-        <v>1</v>
-      </c>
-      <c r="K32" s="4">
+      <c r="J32" s="12">
+        <v>1</v>
+      </c>
+      <c r="K32" s="12">
         <v>6</v>
       </c>
-      <c r="L32" s="4">
+      <c r="L32" s="12">
         <v>3</v>
       </c>
-      <c r="M32" s="4">
+      <c r="M32" s="12">
         <v>15</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="2" t="s">
+      <c r="N32" s="12">
+        <v>2</v>
+      </c>
+      <c r="O32" s="12">
+        <v>22</v>
+      </c>
+      <c r="P32" s="12">
+        <v>10</v>
+      </c>
+      <c r="Q32" s="12">
+        <v>6</v>
+      </c>
+      <c r="R32" s="12">
+        <v>23</v>
+      </c>
+      <c r="S32" s="12">
+        <v>11</v>
+      </c>
+      <c r="T32" s="12">
+        <v>6</v>
+      </c>
+      <c r="U32" s="12">
+        <v>44</v>
+      </c>
+      <c r="V32" s="12">
+        <v>6</v>
+      </c>
+      <c r="W32" s="14">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" ht="12.75">
+      <c r="A33" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="4">
-        <v>0</v>
-      </c>
-      <c r="C33" s="4">
-        <v>0</v>
-      </c>
-      <c r="D33" s="4">
-        <v>0</v>
-      </c>
-      <c r="E33" s="4">
-        <v>0</v>
-      </c>
-      <c r="F33" s="4">
+      <c r="B33" s="12">
+        <v>0</v>
+      </c>
+      <c r="C33" s="12">
+        <v>0</v>
+      </c>
+      <c r="D33" s="12">
+        <v>0</v>
+      </c>
+      <c r="E33" s="12">
+        <v>0</v>
+      </c>
+      <c r="F33" s="12">
         <v>74</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="12">
         <v>32</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33" s="12">
         <v>20</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I33" s="12">
         <v>3</v>
       </c>
-      <c r="J33" s="4">
+      <c r="J33" s="12">
         <v>39</v>
       </c>
-      <c r="K33" s="4">
+      <c r="K33" s="12">
         <v>5</v>
       </c>
-      <c r="L33" s="4">
+      <c r="L33" s="12">
         <v>6</v>
       </c>
-      <c r="M33" s="4">
+      <c r="M33" s="12">
         <v>21</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="2" t="s">
+      <c r="N33" s="12">
+        <v>4</v>
+      </c>
+      <c r="O33" s="12">
+        <v>24</v>
+      </c>
+      <c r="P33" s="12">
+        <v>24</v>
+      </c>
+      <c r="Q33" s="12">
+        <v>19</v>
+      </c>
+      <c r="R33" s="12">
+        <v>12</v>
+      </c>
+      <c r="S33" s="12">
+        <v>6</v>
+      </c>
+      <c r="T33" s="12">
+        <v>23</v>
+      </c>
+      <c r="U33" s="12">
+        <v>5</v>
+      </c>
+      <c r="V33" s="12">
+        <v>30</v>
+      </c>
+      <c r="W33" s="14">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" ht="12.75">
+      <c r="A34" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="12">
         <v>59</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="12">
         <v>14</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="12">
         <v>13</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="12">
         <v>68</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="12">
         <v>57</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="12">
         <v>7</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H34" s="12">
         <v>30</v>
       </c>
-      <c r="I34" s="4">
+      <c r="I34" s="12">
         <v>16</v>
       </c>
-      <c r="J34" s="4">
+      <c r="J34" s="12">
         <v>16</v>
       </c>
-      <c r="K34" s="4">
+      <c r="K34" s="12">
         <v>32</v>
       </c>
-      <c r="L34" s="4">
+      <c r="L34" s="12">
         <v>6</v>
       </c>
-      <c r="M34" s="4">
+      <c r="M34" s="12">
         <v>89</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="2" t="s">
+      <c r="N34" s="12">
+        <v>28</v>
+      </c>
+      <c r="O34" s="12">
+        <v>61</v>
+      </c>
+      <c r="P34" s="12">
+        <v>18</v>
+      </c>
+      <c r="Q34" s="12">
+        <v>19</v>
+      </c>
+      <c r="R34" s="12">
+        <v>42</v>
+      </c>
+      <c r="S34" s="12">
+        <v>20</v>
+      </c>
+      <c r="T34" s="12">
+        <v>45</v>
+      </c>
+      <c r="U34" s="12">
+        <v>77</v>
+      </c>
+      <c r="V34" s="12">
+        <v>14</v>
+      </c>
+      <c r="W34" s="14">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="12.75">
+      <c r="A35" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B35" s="4">
-        <v>0</v>
-      </c>
-      <c r="C35" s="4">
-        <v>0</v>
-      </c>
-      <c r="D35" s="4">
-        <v>0</v>
-      </c>
-      <c r="E35" s="4">
+      <c r="B35" s="12">
+        <v>0</v>
+      </c>
+      <c r="C35" s="12">
+        <v>0</v>
+      </c>
+      <c r="D35" s="12">
+        <v>0</v>
+      </c>
+      <c r="E35" s="12">
         <v>2</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="12">
         <v>16</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="12">
         <v>3</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35" s="12">
         <v>2</v>
       </c>
-      <c r="I35" s="4">
-        <v>1</v>
-      </c>
-      <c r="J35" s="4">
+      <c r="I35" s="12">
+        <v>1</v>
+      </c>
+      <c r="J35" s="12">
         <v>4</v>
       </c>
-      <c r="K35" s="4">
+      <c r="K35" s="12">
         <v>2</v>
       </c>
-      <c r="L35" s="4">
-        <v>0</v>
-      </c>
-      <c r="M35" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="2" t="s">
+      <c r="L35" s="12">
+        <v>0</v>
+      </c>
+      <c r="M35" s="12">
+        <v>0</v>
+      </c>
+      <c r="N35" s="12">
+        <v>2</v>
+      </c>
+      <c r="O35" s="12">
+        <v>7</v>
+      </c>
+      <c r="P35" s="12">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="12">
+        <v>0</v>
+      </c>
+      <c r="R35" s="12">
+        <v>4</v>
+      </c>
+      <c r="S35" s="12">
+        <v>2</v>
+      </c>
+      <c r="T35" s="12">
+        <v>8</v>
+      </c>
+      <c r="U35" s="12">
+        <v>10</v>
+      </c>
+      <c r="V35" s="12">
+        <v>1</v>
+      </c>
+      <c r="W35" s="14">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" ht="12.75">
+      <c r="A36" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B36" s="4">
-        <v>0</v>
-      </c>
-      <c r="C36" s="4">
-        <v>0</v>
-      </c>
-      <c r="D36" s="4">
-        <v>0</v>
-      </c>
-      <c r="E36" s="4">
+      <c r="B36" s="12">
+        <v>0</v>
+      </c>
+      <c r="C36" s="12">
+        <v>0</v>
+      </c>
+      <c r="D36" s="12">
+        <v>0</v>
+      </c>
+      <c r="E36" s="12">
         <v>3</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="12">
         <v>94</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="12">
         <v>2</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H36" s="12">
         <v>12</v>
       </c>
-      <c r="I36" s="4">
+      <c r="I36" s="12">
         <v>20</v>
       </c>
-      <c r="J36" s="4">
+      <c r="J36" s="12">
         <v>49</v>
       </c>
-      <c r="K36" s="4">
+      <c r="K36" s="12">
         <v>2</v>
       </c>
-      <c r="L36" s="4">
-        <v>0</v>
-      </c>
-      <c r="M36" s="4">
+      <c r="L36" s="12">
+        <v>0</v>
+      </c>
+      <c r="M36" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="2" t="s">
+      <c r="N36" s="12">
+        <v>1</v>
+      </c>
+      <c r="O36" s="12">
+        <v>39</v>
+      </c>
+      <c r="P36" s="12">
+        <v>64</v>
+      </c>
+      <c r="Q36" s="12">
+        <v>12</v>
+      </c>
+      <c r="R36" s="12">
+        <v>10</v>
+      </c>
+      <c r="S36" s="12">
+        <v>24</v>
+      </c>
+      <c r="T36" s="12">
+        <v>20</v>
+      </c>
+      <c r="U36" s="12">
+        <v>60</v>
+      </c>
+      <c r="V36" s="12">
+        <v>2</v>
+      </c>
+      <c r="W36" s="14">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="12.75">
+      <c r="A37" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B37" s="4">
-        <v>0</v>
-      </c>
-      <c r="C37" s="4">
-        <v>0</v>
-      </c>
-      <c r="D37" s="4">
-        <v>0</v>
-      </c>
-      <c r="E37" s="4">
+      <c r="B37" s="12">
+        <v>0</v>
+      </c>
+      <c r="C37" s="12">
+        <v>0</v>
+      </c>
+      <c r="D37" s="12">
+        <v>0</v>
+      </c>
+      <c r="E37" s="12">
         <v>310</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="12">
         <v>84</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="12">
         <v>11</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H37" s="12">
         <v>46</v>
       </c>
-      <c r="I37" s="4">
+      <c r="I37" s="12">
         <v>36</v>
       </c>
-      <c r="J37" s="4">
+      <c r="J37" s="12">
         <v>13</v>
       </c>
-      <c r="K37" s="4">
+      <c r="K37" s="12">
         <v>14</v>
       </c>
-      <c r="L37" s="4">
-        <v>0</v>
-      </c>
-      <c r="M37" s="4">
+      <c r="L37" s="12">
+        <v>0</v>
+      </c>
+      <c r="M37" s="12">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="2" t="s">
+      <c r="N37" s="12">
+        <v>10</v>
+      </c>
+      <c r="O37" s="12">
+        <v>76</v>
+      </c>
+      <c r="P37" s="12">
+        <v>21</v>
+      </c>
+      <c r="Q37" s="12">
+        <v>10</v>
+      </c>
+      <c r="R37" s="12">
+        <v>23</v>
+      </c>
+      <c r="S37" s="12">
+        <v>12</v>
+      </c>
+      <c r="T37" s="12">
+        <v>23</v>
+      </c>
+      <c r="U37" s="12">
+        <v>45</v>
+      </c>
+      <c r="V37" s="12">
+        <v>3</v>
+      </c>
+      <c r="W37" s="14">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="12.75">
+      <c r="A38" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="4">
-        <v>0</v>
-      </c>
-      <c r="C38" s="4">
-        <v>0</v>
-      </c>
-      <c r="D38" s="4">
-        <v>0</v>
-      </c>
-      <c r="E38" s="4">
+      <c r="B38" s="12">
+        <v>0</v>
+      </c>
+      <c r="C38" s="12">
+        <v>0</v>
+      </c>
+      <c r="D38" s="12">
+        <v>0</v>
+      </c>
+      <c r="E38" s="12">
         <v>16</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="12">
         <v>56</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="12">
         <v>16</v>
       </c>
-      <c r="H38" s="4">
+      <c r="H38" s="12">
         <v>17</v>
       </c>
-      <c r="I38" s="4">
+      <c r="I38" s="12">
         <v>27</v>
       </c>
-      <c r="J38" s="4">
+      <c r="J38" s="12">
         <v>59</v>
       </c>
-      <c r="K38" s="4">
+      <c r="K38" s="12">
         <v>4</v>
       </c>
-      <c r="L38" s="4">
+      <c r="L38" s="12">
         <v>8</v>
       </c>
-      <c r="M38" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="2" t="s">
+      <c r="M38" s="12">
+        <v>1</v>
+      </c>
+      <c r="N38" s="12">
+        <v>1</v>
+      </c>
+      <c r="O38" s="12">
+        <v>103</v>
+      </c>
+      <c r="P38" s="12">
         <v>60</v>
       </c>
-      <c r="B39" s="4">
-        <v>0</v>
-      </c>
-      <c r="C39" s="4">
-        <v>0</v>
-      </c>
-      <c r="D39" s="4">
-        <v>0</v>
-      </c>
-      <c r="E39" s="4">
-        <v>0</v>
-      </c>
-      <c r="F39" s="4">
-        <v>0</v>
-      </c>
-      <c r="G39" s="4">
-        <v>0</v>
-      </c>
-      <c r="H39" s="4">
-        <v>1</v>
-      </c>
-      <c r="I39" s="4">
+      <c r="Q38" s="12">
+        <v>9</v>
+      </c>
+      <c r="R38" s="12">
+        <v>49</v>
+      </c>
+      <c r="S38" s="12">
+        <v>21</v>
+      </c>
+      <c r="T38" s="12">
+        <v>34</v>
+      </c>
+      <c r="U38" s="12">
+        <v>12</v>
+      </c>
+      <c r="V38" s="12">
+        <v>6</v>
+      </c>
+      <c r="W38" s="14">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" ht="12.75">
+      <c r="A39" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" s="12">
+        <v>0</v>
+      </c>
+      <c r="C39" s="12">
+        <v>0</v>
+      </c>
+      <c r="D39" s="12">
+        <v>0</v>
+      </c>
+      <c r="E39" s="12">
+        <v>0</v>
+      </c>
+      <c r="F39" s="12">
+        <v>0</v>
+      </c>
+      <c r="G39" s="12">
+        <v>0</v>
+      </c>
+      <c r="H39" s="12">
+        <v>1</v>
+      </c>
+      <c r="I39" s="12">
         <v>7</v>
       </c>
-      <c r="J39" s="4">
+      <c r="J39" s="12">
         <v>7</v>
       </c>
-      <c r="K39" s="4">
+      <c r="K39" s="12">
         <v>3</v>
       </c>
-      <c r="L39" s="4">
-        <v>1</v>
-      </c>
-      <c r="M39" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40" s="2" t="s">
+      <c r="L39" s="12">
+        <v>1</v>
+      </c>
+      <c r="M39" s="12">
+        <v>0</v>
+      </c>
+      <c r="N39" s="12">
+        <v>0</v>
+      </c>
+      <c r="O39" s="12">
+        <v>0</v>
+      </c>
+      <c r="P39" s="12">
+        <v>7</v>
+      </c>
+      <c r="Q39" s="12">
+        <v>7</v>
+      </c>
+      <c r="R39" s="12">
+        <v>0</v>
+      </c>
+      <c r="S39" s="12">
+        <v>2</v>
+      </c>
+      <c r="T39" s="12">
+        <v>3</v>
+      </c>
+      <c r="U39" s="12">
+        <v>2</v>
+      </c>
+      <c r="V39" s="12">
+        <v>6</v>
+      </c>
+      <c r="W39" s="14">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" ht="12.75">
+      <c r="A40" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="4">
-        <v>0</v>
-      </c>
-      <c r="C40" s="4">
-        <v>0</v>
-      </c>
-      <c r="D40" s="4">
+      <c r="B40" s="12">
+        <v>0</v>
+      </c>
+      <c r="C40" s="12">
+        <v>0</v>
+      </c>
+      <c r="D40" s="12">
         <v>3</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="12">
         <v>42</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="12">
         <v>145</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="12">
         <v>10</v>
       </c>
-      <c r="H40" s="4">
+      <c r="H40" s="12">
         <v>14</v>
       </c>
-      <c r="I40" s="4">
+      <c r="I40" s="12">
         <v>8</v>
       </c>
-      <c r="J40" s="4">
+      <c r="J40" s="12">
         <v>5</v>
       </c>
-      <c r="K40" s="4">
+      <c r="K40" s="12">
         <v>12</v>
       </c>
-      <c r="L40" s="4">
-        <v>0</v>
-      </c>
-      <c r="M40" s="4">
+      <c r="L40" s="12">
+        <v>0</v>
+      </c>
+      <c r="M40" s="12">
         <v>19</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="A41" s="2" t="s">
+      <c r="N40" s="12">
+        <v>5</v>
+      </c>
+      <c r="O40" s="12">
+        <v>33</v>
+      </c>
+      <c r="P40" s="12">
+        <v>6</v>
+      </c>
+      <c r="Q40" s="12">
+        <v>11</v>
+      </c>
+      <c r="R40" s="12">
+        <v>17</v>
+      </c>
+      <c r="S40" s="12">
+        <v>12</v>
+      </c>
+      <c r="T40" s="12">
+        <v>15</v>
+      </c>
+      <c r="U40" s="12">
+        <v>95</v>
+      </c>
+      <c r="V40" s="12">
+        <v>5</v>
+      </c>
+      <c r="W40" s="14">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="12.75">
+      <c r="A41" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B41" s="4">
-        <v>0</v>
-      </c>
-      <c r="C41" s="4">
-        <v>0</v>
-      </c>
-      <c r="D41" s="4">
-        <v>0</v>
-      </c>
-      <c r="E41" s="4">
-        <v>0</v>
-      </c>
-      <c r="F41" s="4">
-        <v>0</v>
-      </c>
-      <c r="G41" s="4">
-        <v>0</v>
-      </c>
-      <c r="H41" s="4">
-        <v>0</v>
-      </c>
-      <c r="I41" s="4">
-        <v>0</v>
-      </c>
-      <c r="J41" s="4">
-        <v>0</v>
-      </c>
-      <c r="K41" s="4">
-        <v>0</v>
-      </c>
-      <c r="L41" s="4">
-        <v>0</v>
-      </c>
-      <c r="M41" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="A42" s="2" t="s">
+      <c r="B41" s="12">
+        <v>0</v>
+      </c>
+      <c r="C41" s="12">
+        <v>0</v>
+      </c>
+      <c r="D41" s="12">
+        <v>0</v>
+      </c>
+      <c r="E41" s="12">
+        <v>0</v>
+      </c>
+      <c r="F41" s="12">
+        <v>0</v>
+      </c>
+      <c r="G41" s="12">
+        <v>0</v>
+      </c>
+      <c r="H41" s="12">
+        <v>0</v>
+      </c>
+      <c r="I41" s="12">
+        <v>0</v>
+      </c>
+      <c r="J41" s="12">
+        <v>0</v>
+      </c>
+      <c r="K41" s="12">
+        <v>0</v>
+      </c>
+      <c r="L41" s="12">
+        <v>0</v>
+      </c>
+      <c r="M41" s="12">
+        <v>0</v>
+      </c>
+      <c r="N41" s="12">
+        <v>0</v>
+      </c>
+      <c r="O41" s="12">
+        <v>1</v>
+      </c>
+      <c r="P41" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="12">
+        <v>0</v>
+      </c>
+      <c r="R41" s="12">
+        <v>0</v>
+      </c>
+      <c r="S41" s="12">
+        <v>0</v>
+      </c>
+      <c r="T41" s="12">
+        <v>0</v>
+      </c>
+      <c r="U41" s="12">
+        <v>0</v>
+      </c>
+      <c r="V41" s="12">
+        <v>0</v>
+      </c>
+      <c r="W41" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" ht="12.75">
+      <c r="A42" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B42" s="4">
-        <v>0</v>
-      </c>
-      <c r="C42" s="4">
-        <v>0</v>
-      </c>
-      <c r="D42" s="4">
-        <v>0</v>
-      </c>
-      <c r="E42" s="4">
-        <v>1</v>
-      </c>
-      <c r="F42" s="4">
+      <c r="B42" s="12">
+        <v>0</v>
+      </c>
+      <c r="C42" s="12">
+        <v>0</v>
+      </c>
+      <c r="D42" s="12">
+        <v>0</v>
+      </c>
+      <c r="E42" s="12">
+        <v>1</v>
+      </c>
+      <c r="F42" s="12">
         <v>5</v>
       </c>
-      <c r="G42" s="4">
-        <v>0</v>
-      </c>
-      <c r="H42" s="4">
-        <v>1</v>
-      </c>
-      <c r="I42" s="4">
-        <v>0</v>
-      </c>
-      <c r="J42" s="4">
-        <v>0</v>
-      </c>
-      <c r="K42" s="4">
-        <v>1</v>
-      </c>
-      <c r="L42" s="4">
-        <v>0</v>
-      </c>
-      <c r="M42" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
-      <c r="A43" s="2" t="s">
+      <c r="G42" s="12">
+        <v>0</v>
+      </c>
+      <c r="H42" s="12">
+        <v>1</v>
+      </c>
+      <c r="I42" s="12">
+        <v>0</v>
+      </c>
+      <c r="J42" s="12">
+        <v>0</v>
+      </c>
+      <c r="K42" s="12">
+        <v>1</v>
+      </c>
+      <c r="L42" s="12">
+        <v>0</v>
+      </c>
+      <c r="M42" s="12">
+        <v>0</v>
+      </c>
+      <c r="N42" s="12">
+        <v>1</v>
+      </c>
+      <c r="O42" s="12">
+        <v>2</v>
+      </c>
+      <c r="P42" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="12">
+        <v>0</v>
+      </c>
+      <c r="R42" s="12">
+        <v>0</v>
+      </c>
+      <c r="S42" s="12">
+        <v>2</v>
+      </c>
+      <c r="T42" s="12">
+        <v>1</v>
+      </c>
+      <c r="U42" s="12">
+        <v>0</v>
+      </c>
+      <c r="V42" s="12">
+        <v>0</v>
+      </c>
+      <c r="W42" s="14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" ht="12.75">
+      <c r="A43" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B43" s="4">
-        <v>0</v>
-      </c>
-      <c r="C43" s="4">
-        <v>0</v>
-      </c>
-      <c r="D43" s="4">
-        <v>0</v>
-      </c>
-      <c r="E43" s="4">
-        <v>1</v>
-      </c>
-      <c r="F43" s="4">
+      <c r="B43" s="12">
+        <v>0</v>
+      </c>
+      <c r="C43" s="12">
+        <v>0</v>
+      </c>
+      <c r="D43" s="12">
+        <v>0</v>
+      </c>
+      <c r="E43" s="12">
+        <v>1</v>
+      </c>
+      <c r="F43" s="12">
         <v>3</v>
       </c>
-      <c r="G43" s="4">
-        <v>0</v>
-      </c>
-      <c r="H43" s="4">
+      <c r="G43" s="12">
+        <v>0</v>
+      </c>
+      <c r="H43" s="12">
         <v>5</v>
       </c>
-      <c r="I43" s="4">
-        <v>1</v>
-      </c>
-      <c r="J43" s="4">
+      <c r="I43" s="12">
+        <v>1</v>
+      </c>
+      <c r="J43" s="12">
         <v>3</v>
       </c>
-      <c r="K43" s="4">
-        <v>0</v>
-      </c>
-      <c r="L43" s="4">
+      <c r="K43" s="12">
+        <v>0</v>
+      </c>
+      <c r="L43" s="12">
         <v>3</v>
       </c>
-      <c r="M43" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
-      <c r="A44" s="2" t="s">
+      <c r="M43" s="12">
+        <v>1</v>
+      </c>
+      <c r="N43" s="12">
+        <v>0</v>
+      </c>
+      <c r="O43" s="12">
+        <v>20</v>
+      </c>
+      <c r="P43" s="12">
+        <v>3</v>
+      </c>
+      <c r="Q43" s="12">
+        <v>3</v>
+      </c>
+      <c r="R43" s="12">
+        <v>0</v>
+      </c>
+      <c r="S43" s="12">
+        <v>6</v>
+      </c>
+      <c r="T43" s="12">
+        <v>16</v>
+      </c>
+      <c r="U43" s="12">
+        <v>12</v>
+      </c>
+      <c r="V43" s="12">
+        <v>2</v>
+      </c>
+      <c r="W43" s="14">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" ht="12.75">
+      <c r="A44" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B44" s="4">
-        <v>0</v>
-      </c>
-      <c r="C44" s="4">
-        <v>0</v>
-      </c>
-      <c r="D44" s="4">
-        <v>0</v>
-      </c>
-      <c r="E44" s="4">
+      <c r="B44" s="12">
+        <v>0</v>
+      </c>
+      <c r="C44" s="12">
+        <v>0</v>
+      </c>
+      <c r="D44" s="12">
+        <v>0</v>
+      </c>
+      <c r="E44" s="12">
         <v>17</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="12">
         <v>151</v>
       </c>
-      <c r="G44" s="4">
+      <c r="G44" s="12">
         <v>6</v>
       </c>
-      <c r="H44" s="4">
+      <c r="H44" s="12">
         <v>36</v>
       </c>
-      <c r="I44" s="4">
+      <c r="I44" s="12">
         <v>38</v>
       </c>
-      <c r="J44" s="4">
+      <c r="J44" s="12">
         <v>48</v>
       </c>
-      <c r="K44" s="4">
+      <c r="K44" s="12">
         <v>11</v>
       </c>
-      <c r="L44" s="4">
+      <c r="L44" s="12">
         <v>6</v>
       </c>
-      <c r="M44" s="4">
+      <c r="M44" s="12">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:13">
-      <c r="A45" s="2" t="s">
+      <c r="N44" s="12">
+        <v>0</v>
+      </c>
+      <c r="O44" s="12">
+        <v>62</v>
+      </c>
+      <c r="P44" s="12">
+        <v>57</v>
+      </c>
+      <c r="Q44" s="12">
+        <v>12</v>
+      </c>
+      <c r="R44" s="12">
+        <v>11</v>
+      </c>
+      <c r="S44" s="12">
+        <v>35</v>
+      </c>
+      <c r="T44" s="12">
+        <v>27</v>
+      </c>
+      <c r="U44" s="12">
+        <v>47</v>
+      </c>
+      <c r="V44" s="12">
+        <v>0</v>
+      </c>
+      <c r="W44" s="14">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" ht="12.75">
+      <c r="A45" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B45" s="4">
-        <v>0</v>
-      </c>
-      <c r="C45" s="4">
-        <v>0</v>
-      </c>
-      <c r="D45" s="4">
-        <v>0</v>
-      </c>
-      <c r="E45" s="4">
+      <c r="B45" s="12">
+        <v>0</v>
+      </c>
+      <c r="C45" s="12">
+        <v>0</v>
+      </c>
+      <c r="D45" s="12">
+        <v>0</v>
+      </c>
+      <c r="E45" s="12">
         <v>47</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="12">
         <v>21</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G45" s="12">
         <v>13</v>
       </c>
-      <c r="H45" s="4">
+      <c r="H45" s="12">
         <v>15</v>
       </c>
-      <c r="I45" s="4">
+      <c r="I45" s="12">
         <v>16</v>
       </c>
-      <c r="J45" s="4">
+      <c r="J45" s="12">
         <v>5</v>
       </c>
-      <c r="K45" s="4">
+      <c r="K45" s="12">
         <v>12</v>
       </c>
-      <c r="L45" s="4">
+      <c r="L45" s="12">
         <v>4</v>
       </c>
-      <c r="M45" s="4">
+      <c r="M45" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:13">
-      <c r="A46" s="2" t="s">
+      <c r="N45" s="12">
+        <v>16</v>
+      </c>
+      <c r="O45" s="12">
+        <v>19</v>
+      </c>
+      <c r="P45" s="12">
+        <v>17</v>
+      </c>
+      <c r="Q45" s="12">
+        <v>12</v>
+      </c>
+      <c r="R45" s="12">
+        <v>5</v>
+      </c>
+      <c r="S45" s="12">
+        <v>3</v>
+      </c>
+      <c r="T45" s="12">
+        <v>22</v>
+      </c>
+      <c r="U45" s="12">
+        <v>11</v>
+      </c>
+      <c r="V45" s="12">
+        <v>3</v>
+      </c>
+      <c r="W45" s="14">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" ht="12.75">
+      <c r="A46" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="4">
-        <v>0</v>
-      </c>
-      <c r="C46" s="4">
-        <v>0</v>
-      </c>
-      <c r="D46" s="4">
-        <v>0</v>
-      </c>
-      <c r="E46" s="4">
+      <c r="B46" s="12">
+        <v>0</v>
+      </c>
+      <c r="C46" s="12">
+        <v>0</v>
+      </c>
+      <c r="D46" s="12">
+        <v>0</v>
+      </c>
+      <c r="E46" s="12">
         <v>202</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="12">
         <v>431</v>
       </c>
-      <c r="G46" s="4">
+      <c r="G46" s="12">
         <v>119</v>
       </c>
-      <c r="H46" s="4">
+      <c r="H46" s="12">
         <v>128</v>
       </c>
-      <c r="I46" s="4">
+      <c r="I46" s="12">
         <v>233</v>
       </c>
-      <c r="J46" s="4">
+      <c r="J46" s="12">
         <v>170</v>
       </c>
-      <c r="K46" s="4">
+      <c r="K46" s="12">
         <v>40</v>
       </c>
-      <c r="L46" s="4">
+      <c r="L46" s="12">
         <v>93</v>
       </c>
-      <c r="M46" s="4">
+      <c r="M46" s="12">
         <v>77</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
-      <c r="A47" s="2" t="s">
+      <c r="N46" s="12">
+        <v>20</v>
+      </c>
+      <c r="O46" s="12">
+        <v>844</v>
+      </c>
+      <c r="P46" s="12">
+        <v>113</v>
+      </c>
+      <c r="Q46" s="12">
+        <v>253</v>
+      </c>
+      <c r="R46" s="12">
+        <v>196</v>
+      </c>
+      <c r="S46" s="12">
+        <v>252</v>
+      </c>
+      <c r="T46" s="12">
+        <v>87</v>
+      </c>
+      <c r="U46" s="12">
+        <v>108</v>
+      </c>
+      <c r="V46" s="12">
+        <v>24</v>
+      </c>
+      <c r="W46" s="14">
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" ht="12.75">
+      <c r="A47" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="4">
-        <v>0</v>
-      </c>
-      <c r="C47" s="4">
-        <v>0</v>
-      </c>
-      <c r="D47" s="4">
-        <v>0</v>
-      </c>
-      <c r="E47" s="4">
-        <v>0</v>
-      </c>
-      <c r="F47" s="4">
-        <v>0</v>
-      </c>
-      <c r="G47" s="4">
+      <c r="B47" s="12">
+        <v>0</v>
+      </c>
+      <c r="C47" s="12">
+        <v>0</v>
+      </c>
+      <c r="D47" s="12">
+        <v>0</v>
+      </c>
+      <c r="E47" s="12">
+        <v>0</v>
+      </c>
+      <c r="F47" s="12">
+        <v>0</v>
+      </c>
+      <c r="G47" s="12">
         <v>6</v>
       </c>
-      <c r="H47" s="4">
+      <c r="H47" s="12">
         <v>21</v>
       </c>
-      <c r="I47" s="4">
+      <c r="I47" s="12">
         <v>56</v>
       </c>
-      <c r="J47" s="4">
+      <c r="J47" s="12">
         <v>28</v>
       </c>
-      <c r="K47" s="4">
+      <c r="K47" s="12">
         <v>6</v>
       </c>
-      <c r="L47" s="4">
-        <v>1</v>
-      </c>
-      <c r="M47" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="A48" s="2" t="s">
+      <c r="L47" s="12">
+        <v>1</v>
+      </c>
+      <c r="M47" s="12">
+        <v>1</v>
+      </c>
+      <c r="N47" s="12">
+        <v>1</v>
+      </c>
+      <c r="O47" s="12">
+        <v>3</v>
+      </c>
+      <c r="P47" s="12">
+        <v>4</v>
+      </c>
+      <c r="Q47" s="12">
+        <v>1</v>
+      </c>
+      <c r="R47" s="12">
+        <v>5</v>
+      </c>
+      <c r="S47" s="12">
+        <v>7</v>
+      </c>
+      <c r="T47" s="12">
+        <v>39</v>
+      </c>
+      <c r="U47" s="12">
+        <v>7</v>
+      </c>
+      <c r="V47" s="12">
+        <v>14</v>
+      </c>
+      <c r="W47" s="14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" ht="12.75">
+      <c r="A48" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B48" s="4">
-        <v>0</v>
-      </c>
-      <c r="C48" s="4">
-        <v>0</v>
-      </c>
-      <c r="D48" s="4">
-        <v>0</v>
-      </c>
-      <c r="E48" s="4">
-        <v>0</v>
-      </c>
-      <c r="F48" s="4">
-        <v>0</v>
-      </c>
-      <c r="G48" s="4">
-        <v>0</v>
-      </c>
-      <c r="H48" s="4">
-        <v>0</v>
-      </c>
-      <c r="I48" s="4">
-        <v>0</v>
-      </c>
-      <c r="J48" s="4">
-        <v>0</v>
-      </c>
-      <c r="K48" s="4">
-        <v>0</v>
-      </c>
-      <c r="L48" s="4">
-        <v>0</v>
-      </c>
-      <c r="M48" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
-      <c r="A49" s="2" t="s">
+      <c r="B48" s="12">
+        <v>0</v>
+      </c>
+      <c r="C48" s="12">
+        <v>0</v>
+      </c>
+      <c r="D48" s="12">
+        <v>0</v>
+      </c>
+      <c r="E48" s="12">
+        <v>0</v>
+      </c>
+      <c r="F48" s="12">
+        <v>0</v>
+      </c>
+      <c r="G48" s="12">
+        <v>0</v>
+      </c>
+      <c r="H48" s="12">
+        <v>0</v>
+      </c>
+      <c r="I48" s="12">
+        <v>0</v>
+      </c>
+      <c r="J48" s="12">
+        <v>0</v>
+      </c>
+      <c r="K48" s="12">
+        <v>0</v>
+      </c>
+      <c r="L48" s="12">
+        <v>0</v>
+      </c>
+      <c r="M48" s="12">
+        <v>0</v>
+      </c>
+      <c r="N48" s="12">
+        <v>1</v>
+      </c>
+      <c r="O48" s="12">
+        <v>1</v>
+      </c>
+      <c r="P48" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="12">
+        <v>0</v>
+      </c>
+      <c r="R48" s="12">
+        <v>0</v>
+      </c>
+      <c r="S48" s="12">
+        <v>2</v>
+      </c>
+      <c r="T48" s="12">
+        <v>2</v>
+      </c>
+      <c r="U48" s="12">
+        <v>1</v>
+      </c>
+      <c r="V48" s="12">
+        <v>0</v>
+      </c>
+      <c r="W48" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" ht="12.75">
+      <c r="A49" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B49" s="4">
-        <v>0</v>
-      </c>
-      <c r="C49" s="4">
-        <v>0</v>
-      </c>
-      <c r="D49" s="4">
-        <v>0</v>
-      </c>
-      <c r="E49" s="4">
+      <c r="B49" s="12">
+        <v>0</v>
+      </c>
+      <c r="C49" s="12">
+        <v>0</v>
+      </c>
+      <c r="D49" s="12">
+        <v>0</v>
+      </c>
+      <c r="E49" s="12">
         <v>16</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F49" s="12">
         <v>19</v>
       </c>
-      <c r="G49" s="4">
+      <c r="G49" s="12">
         <v>5</v>
       </c>
-      <c r="H49" s="4">
-        <v>0</v>
-      </c>
-      <c r="I49" s="4">
-        <v>0</v>
-      </c>
-      <c r="J49" s="4">
+      <c r="H49" s="12">
+        <v>0</v>
+      </c>
+      <c r="I49" s="12">
+        <v>0</v>
+      </c>
+      <c r="J49" s="12">
         <v>3</v>
       </c>
-      <c r="K49" s="4">
-        <v>0</v>
-      </c>
-      <c r="L49" s="4">
+      <c r="K49" s="12">
+        <v>0</v>
+      </c>
+      <c r="L49" s="12">
         <v>5</v>
       </c>
-      <c r="M49" s="4">
+      <c r="M49" s="12">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
-      <c r="A50" s="2" t="s">
+      <c r="N49" s="12">
+        <v>8</v>
+      </c>
+      <c r="O49" s="12">
+        <v>20</v>
+      </c>
+      <c r="P49" s="12">
+        <v>6</v>
+      </c>
+      <c r="Q49" s="12">
+        <v>5</v>
+      </c>
+      <c r="R49" s="12">
+        <v>13</v>
+      </c>
+      <c r="S49" s="12">
+        <v>6</v>
+      </c>
+      <c r="T49" s="12">
+        <v>12</v>
+      </c>
+      <c r="U49" s="12">
+        <v>38</v>
+      </c>
+      <c r="V49" s="12">
+        <v>4</v>
+      </c>
+      <c r="W49" s="14">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" ht="12.75">
+      <c r="A50" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B50" s="4">
-        <v>0</v>
-      </c>
-      <c r="C50" s="4">
-        <v>0</v>
-      </c>
-      <c r="D50" s="4">
-        <v>0</v>
-      </c>
-      <c r="E50" s="4">
-        <v>0</v>
-      </c>
-      <c r="F50" s="4">
-        <v>0</v>
-      </c>
-      <c r="G50" s="4">
-        <v>0</v>
-      </c>
-      <c r="H50" s="4">
-        <v>0</v>
-      </c>
-      <c r="I50" s="4">
-        <v>0</v>
-      </c>
-      <c r="J50" s="4">
-        <v>0</v>
-      </c>
-      <c r="K50" s="4">
+      <c r="B50" s="12">
+        <v>0</v>
+      </c>
+      <c r="C50" s="12">
+        <v>0</v>
+      </c>
+      <c r="D50" s="12">
+        <v>0</v>
+      </c>
+      <c r="E50" s="12">
+        <v>0</v>
+      </c>
+      <c r="F50" s="12">
+        <v>0</v>
+      </c>
+      <c r="G50" s="12">
+        <v>0</v>
+      </c>
+      <c r="H50" s="12">
+        <v>0</v>
+      </c>
+      <c r="I50" s="12">
+        <v>0</v>
+      </c>
+      <c r="J50" s="12">
+        <v>0</v>
+      </c>
+      <c r="K50" s="12">
         <v>2</v>
       </c>
-      <c r="L50" s="4">
+      <c r="L50" s="12">
         <v>26</v>
       </c>
-      <c r="M50" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
-      <c r="A51" s="2" t="s">
+      <c r="M50" s="12">
+        <v>1</v>
+      </c>
+      <c r="N50" s="12">
+        <v>0</v>
+      </c>
+      <c r="O50" s="12">
+        <v>4</v>
+      </c>
+      <c r="P50" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="12">
+        <v>7</v>
+      </c>
+      <c r="R50" s="12">
+        <v>8</v>
+      </c>
+      <c r="S50" s="12">
+        <v>8</v>
+      </c>
+      <c r="T50" s="12">
+        <v>10</v>
+      </c>
+      <c r="U50" s="12">
+        <v>2</v>
+      </c>
+      <c r="V50" s="12">
+        <v>3</v>
+      </c>
+      <c r="W50" s="14">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" ht="12.75">
+      <c r="A51" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B51" s="4">
-        <v>0</v>
-      </c>
-      <c r="C51" s="4">
-        <v>0</v>
-      </c>
-      <c r="D51" s="4">
-        <v>0</v>
-      </c>
-      <c r="E51" s="4">
+      <c r="B51" s="12">
+        <v>0</v>
+      </c>
+      <c r="C51" s="12">
+        <v>0</v>
+      </c>
+      <c r="D51" s="12">
+        <v>0</v>
+      </c>
+      <c r="E51" s="12">
         <v>3</v>
       </c>
-      <c r="F51" s="4">
-        <v>1</v>
-      </c>
-      <c r="G51" s="4">
-        <v>0</v>
-      </c>
-      <c r="H51" s="4">
-        <v>0</v>
-      </c>
-      <c r="I51" s="4">
-        <v>1</v>
-      </c>
-      <c r="J51" s="4">
-        <v>0</v>
-      </c>
-      <c r="K51" s="4">
-        <v>1</v>
-      </c>
-      <c r="L51" s="4">
-        <v>0</v>
-      </c>
-      <c r="M51" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="A52" s="2" t="s">
+      <c r="F51" s="12">
+        <v>1</v>
+      </c>
+      <c r="G51" s="12">
+        <v>0</v>
+      </c>
+      <c r="H51" s="12">
+        <v>0</v>
+      </c>
+      <c r="I51" s="12">
+        <v>1</v>
+      </c>
+      <c r="J51" s="12">
+        <v>0</v>
+      </c>
+      <c r="K51" s="12">
+        <v>1</v>
+      </c>
+      <c r="L51" s="12">
+        <v>0</v>
+      </c>
+      <c r="M51" s="12">
+        <v>0</v>
+      </c>
+      <c r="N51" s="12">
+        <v>2</v>
+      </c>
+      <c r="O51" s="12">
+        <v>5</v>
+      </c>
+      <c r="P51" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="12">
+        <v>0</v>
+      </c>
+      <c r="R51" s="12">
+        <v>0</v>
+      </c>
+      <c r="S51" s="12">
+        <v>0</v>
+      </c>
+      <c r="T51" s="12">
+        <v>1</v>
+      </c>
+      <c r="U51" s="12">
+        <v>2</v>
+      </c>
+      <c r="V51" s="12">
+        <v>0</v>
+      </c>
+      <c r="W51" s="14">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" ht="12.75">
+      <c r="A52" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B52" s="4">
-        <v>0</v>
-      </c>
-      <c r="C52" s="4">
-        <v>0</v>
-      </c>
-      <c r="D52" s="4">
-        <v>0</v>
-      </c>
-      <c r="E52" s="4">
+      <c r="B52" s="12">
+        <v>0</v>
+      </c>
+      <c r="C52" s="12">
+        <v>0</v>
+      </c>
+      <c r="D52" s="12">
+        <v>0</v>
+      </c>
+      <c r="E52" s="12">
         <v>22</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52" s="12">
         <v>7</v>
       </c>
-      <c r="G52" s="4">
+      <c r="G52" s="12">
         <v>5</v>
       </c>
-      <c r="H52" s="4">
+      <c r="H52" s="12">
         <v>11</v>
       </c>
-      <c r="I52" s="4">
+      <c r="I52" s="12">
         <v>11</v>
       </c>
-      <c r="J52" s="4">
+      <c r="J52" s="12">
         <v>7</v>
       </c>
-      <c r="K52" s="4">
+      <c r="K52" s="12">
         <v>4</v>
       </c>
-      <c r="L52" s="4">
-        <v>1</v>
-      </c>
-      <c r="M52" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
-      <c r="A53" s="2" t="s">
+      <c r="L52" s="12">
+        <v>1</v>
+      </c>
+      <c r="M52" s="12">
+        <v>0</v>
+      </c>
+      <c r="N52" s="12">
+        <v>2</v>
+      </c>
+      <c r="O52" s="12">
+        <v>44</v>
+      </c>
+      <c r="P52" s="12">
+        <v>17</v>
+      </c>
+      <c r="Q52" s="12">
+        <v>3</v>
+      </c>
+      <c r="R52" s="12">
+        <v>6</v>
+      </c>
+      <c r="S52" s="12">
+        <v>10</v>
+      </c>
+      <c r="T52" s="12">
+        <v>47</v>
+      </c>
+      <c r="U52" s="12">
+        <v>29</v>
+      </c>
+      <c r="V52" s="12">
+        <v>0</v>
+      </c>
+      <c r="W52" s="14">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" ht="12.75">
+      <c r="A53" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B53" s="4">
-        <v>0</v>
-      </c>
-      <c r="C53" s="4">
-        <v>0</v>
-      </c>
-      <c r="D53" s="4">
-        <v>0</v>
-      </c>
-      <c r="E53" s="4">
-        <v>0</v>
-      </c>
-      <c r="F53" s="4">
+      <c r="B53" s="12">
+        <v>0</v>
+      </c>
+      <c r="C53" s="12">
+        <v>0</v>
+      </c>
+      <c r="D53" s="12">
+        <v>0</v>
+      </c>
+      <c r="E53" s="12">
+        <v>0</v>
+      </c>
+      <c r="F53" s="12">
         <v>92</v>
       </c>
-      <c r="G53" s="4">
+      <c r="G53" s="12">
         <v>2</v>
       </c>
-      <c r="H53" s="4">
+      <c r="H53" s="12">
         <v>6</v>
       </c>
-      <c r="I53" s="4">
+      <c r="I53" s="12">
         <v>15</v>
       </c>
-      <c r="J53" s="4">
+      <c r="J53" s="12">
         <v>23</v>
       </c>
-      <c r="K53" s="4">
-        <v>0</v>
-      </c>
-      <c r="L53" s="4">
+      <c r="K53" s="12">
+        <v>0</v>
+      </c>
+      <c r="L53" s="12">
         <v>4</v>
       </c>
-      <c r="M53" s="4">
+      <c r="M53" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
-      <c r="A54" s="2" t="s">
+      <c r="N53" s="12">
+        <v>1</v>
+      </c>
+      <c r="O53" s="12">
+        <v>3</v>
+      </c>
+      <c r="P53" s="12">
+        <v>16</v>
+      </c>
+      <c r="Q53" s="12">
+        <v>0</v>
+      </c>
+      <c r="R53" s="12">
+        <v>3</v>
+      </c>
+      <c r="S53" s="12">
+        <v>8</v>
+      </c>
+      <c r="T53" s="12">
+        <v>4</v>
+      </c>
+      <c r="U53" s="12">
+        <v>3</v>
+      </c>
+      <c r="V53" s="12">
+        <v>2</v>
+      </c>
+      <c r="W53" s="14">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" ht="12.75">
+      <c r="A54" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54" s="19">
         <v>59</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="19">
         <v>19</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="19">
         <v>64</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E54" s="19">
         <v>2946</v>
       </c>
-      <c r="F54" s="1">
+      <c r="F54" s="19">
         <v>2866</v>
       </c>
-      <c r="G54" s="1">
+      <c r="G54" s="19">
         <v>1148</v>
       </c>
-      <c r="H54" s="1">
+      <c r="H54" s="19">
         <v>1309</v>
       </c>
-      <c r="I54" s="1">
+      <c r="I54" s="19">
         <v>1495</v>
       </c>
-      <c r="J54" s="1">
+      <c r="J54" s="19">
         <v>1227</v>
       </c>
-      <c r="K54" s="4">
+      <c r="K54" s="19">
         <v>689</v>
       </c>
-      <c r="L54" s="4">
+      <c r="L54" s="19">
         <v>386</v>
       </c>
-      <c r="M54" s="4">
+      <c r="M54" s="19">
         <v>629</v>
+      </c>
+      <c r="N54" s="19">
+        <v>486</v>
+      </c>
+      <c r="O54" s="19">
+        <v>2873</v>
+      </c>
+      <c r="P54" s="19">
+        <v>1267</v>
+      </c>
+      <c r="Q54" s="19">
+        <v>1347</v>
+      </c>
+      <c r="R54" s="19">
+        <v>1455</v>
+      </c>
+      <c r="S54" s="19">
+        <v>1309</v>
+      </c>
+      <c r="T54" s="19">
+        <v>1425</v>
+      </c>
+      <c r="U54" s="19">
+        <v>1658</v>
+      </c>
+      <c r="V54" s="19">
+        <v>633</v>
+      </c>
+      <c r="W54" s="20">
+        <v>25290</v>
       </c>
     </row>
   </sheetData>
